--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EC18C-CDFC-42B4-9390-D915C22D9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C068A-42A5-444C-B151-F736CCDC9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,15 +721,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1120,8 +1120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I46" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I46" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I48" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,19 +1465,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -2513,7 +2513,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>127</v>
@@ -2537,8 +2537,10 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>137</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -2552,8 +2554,10 @@
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="30" t="s">
+      <c r="A41" s="24">
+        <v>39</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2567,8 +2571,10 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="24">
+        <v>40</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -2582,8 +2588,10 @@
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>132</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -2597,8 +2605,10 @@
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="29" t="s">
+      <c r="A44" s="24">
+        <v>42</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="13"/>
@@ -2610,8 +2620,10 @@
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="24">
+        <v>43</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>131</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -2625,8 +2637,10 @@
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="27" t="s">
         <v>134</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -2640,8 +2654,8 @@
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="24">
-        <v>37</v>
+      <c r="A47" s="11">
+        <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>125</v>
@@ -2665,8 +2679,8 @@
       <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
-        <v>33</v>
+      <c r="A48" s="24">
+        <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>99</v>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C068A-42A5-444C-B151-F736CCDC9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964B61A8-F6CF-41F3-B5B5-F6EE93771CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="159">
   <si>
     <t>#</t>
   </si>
@@ -220,12 +220,6 @@
   </si>
   <si>
     <t>Data objects</t>
-  </si>
-  <si>
-    <t>Persistent storage</t>
-  </si>
-  <si>
-    <t>Application landscape has to be stored persistently e.g. as Database or JSON file</t>
   </si>
   <si>
     <t>Responsible person for task informs team, if the team can't find a solution -&gt; inform supervisor</t>
@@ -422,9 +416,6 @@
     <t>Changing visual text from status to COTS</t>
   </si>
   <si>
-    <t>Implenting new features</t>
-  </si>
-  <si>
     <t>Generating a MVC Skeleton</t>
   </si>
   <si>
@@ -440,9 +431,6 @@
     <t>Testing communication with MongoDB</t>
   </si>
   <si>
-    <t>Diagrams can be loaded and saved in the Database</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create view </t>
   </si>
   <si>
@@ -458,10 +446,70 @@
     <t>Code before refactoring works in new Pattern</t>
   </si>
   <si>
-    <t>Diagram generates objects in our models</t>
-  </si>
-  <si>
     <t>URL-handling Code</t>
+  </si>
+  <si>
+    <t>37.1</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>37.3</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>37.6</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>Creating a plan for refactoring</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Fixing bugs</t>
+  </si>
+  <si>
+    <t>Download component</t>
+  </si>
+  <si>
+    <t>Creating a view</t>
+  </si>
+  <si>
+    <t>Time component</t>
+  </si>
+  <si>
+    <t>Organising for the tasks to refactor the code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagram generates objects </t>
+  </si>
+  <si>
+    <t>Diagrams can be loaded and saved persistently in the Database</t>
+  </si>
+  <si>
+    <t>Application landscape has to be stored persistently e.g. as Database</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>34.3</t>
   </si>
 </sst>
 </file>
@@ -471,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +530,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1120,8 +1174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I48" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I51" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1444,27 +1498,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -1473,13 +1527,13 @@
       <c r="D1" s="29"/>
       <c r="E1" s="30"/>
       <c r="F1" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1537,7 +1591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1566,7 +1620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1595,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1624,7 +1678,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1653,7 +1707,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1682,7 +1736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1711,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1740,7 +1794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1769,21 +1823,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="20">
         <v>1</v>
@@ -1798,21 +1852,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="20">
         <v>1</v>
@@ -1827,21 +1881,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="20">
         <v>1</v>
@@ -1856,21 +1910,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
@@ -1885,21 +1939,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="20">
         <v>1</v>
@@ -1914,15 +1968,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>31</v>
@@ -1943,21 +1997,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="20">
         <v>1</v>
@@ -1972,21 +2026,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="20">
         <v>1</v>
@@ -2001,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2009,7 +2063,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>36</v>
@@ -2030,15 +2084,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>36</v>
@@ -2059,15 +2113,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>24</v>
@@ -2088,15 +2142,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>34</v>
@@ -2117,15 +2171,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>36</v>
@@ -2146,15 +2200,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>24</v>
@@ -2175,15 +2229,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>31</v>
@@ -2204,15 +2258,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>24</v>
@@ -2233,15 +2287,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>28</v>
@@ -2262,15 +2316,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>28</v>
@@ -2291,15 +2345,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>34</v>
@@ -2320,15 +2374,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>31</v>
@@ -2349,15 +2403,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>34</v>
@@ -2378,15 +2432,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>31</v>
@@ -2407,161 +2461,185 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F35" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
+        <v>33</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="F36" s="15">
+        <v>3</v>
+      </c>
+      <c r="G36" s="16">
+        <v>3</v>
+      </c>
+      <c r="H36" s="15">
+        <v>3</v>
+      </c>
+      <c r="I36" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="20">
+        <v>3</v>
+      </c>
+      <c r="G37" s="14">
+        <v>2</v>
+      </c>
+      <c r="H37" s="13">
+        <v>3</v>
+      </c>
+      <c r="I37" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="20">
+        <v>3</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="20">
+        <v>3</v>
+      </c>
+      <c r="G39" s="14">
+        <v>2</v>
+      </c>
+      <c r="H39" s="13">
+        <v>3</v>
+      </c>
+      <c r="I39" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>35</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="13">
-        <v>3</v>
-      </c>
-      <c r="G36" s="14">
-        <v>3</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>35</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="15">
-        <v>3</v>
-      </c>
-      <c r="G37" s="16">
-        <v>4</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
+      <c r="F40" s="25">
+        <v>3</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15">
+        <v>3</v>
+      </c>
+      <c r="I40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
         <v>36</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="25">
-        <v>3</v>
-      </c>
-      <c r="G38" s="16">
-        <v>1</v>
-      </c>
-      <c r="H38" s="15">
-        <v>3</v>
-      </c>
-      <c r="I38" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="24">
-        <v>37</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="25">
-        <v>3</v>
-      </c>
-      <c r="G39" s="16">
-        <v>20</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>38</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="24">
-        <v>39</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>130</v>
+      <c r="B41" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -2570,144 +2648,262 @@
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="24">
-        <v>40</v>
-      </c>
-      <c r="B42" s="27" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="20">
+        <v>3</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="20">
+        <v>3</v>
+      </c>
+      <c r="G43" s="14">
+        <v>2</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="16"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>41</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="B44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="20">
+        <v>3</v>
+      </c>
+      <c r="G44" s="16">
+        <v>2</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
-        <v>42</v>
-      </c>
-      <c r="B44" s="26" t="s">
+      <c r="B45" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
-        <v>43</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="16"/>
+      <c r="D45" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="20">
+        <v>3</v>
+      </c>
+      <c r="G45" s="16">
+        <v>3</v>
+      </c>
       <c r="H45" s="15"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
-        <v>44</v>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="16"/>
+        <v>153</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="20">
+        <v>3</v>
+      </c>
+      <c r="G46" s="16">
+        <v>3</v>
+      </c>
       <c r="H46" s="15"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>45</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="15" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="20">
+        <v>3</v>
+      </c>
+      <c r="G47" s="14">
+        <v>3</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="20">
+        <v>3</v>
+      </c>
+      <c r="G48" s="16">
+        <v>3</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="20">
+        <v>3</v>
+      </c>
+      <c r="G49" s="16">
+        <v>5</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>38</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E50" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="25">
+        <v>3</v>
+      </c>
+      <c r="G50" s="16">
+        <v>6</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="24">
+        <v>39</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="25">
-        <v>3</v>
-      </c>
-      <c r="G47" s="16">
-        <v>8</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
-        <v>46</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="13">
-        <v>3</v>
-      </c>
-      <c r="G48" s="14">
+      <c r="F51" s="13">
+        <v>3</v>
+      </c>
+      <c r="G51" s="14">
         <v>6</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2733,17 +2929,17 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2773,9 +2969,11 @@
       <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2788,9 +2986,11 @@
       <c r="D3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2803,9 +3003,11 @@
       <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2818,9 +3020,11 @@
       <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2833,9 +3037,11 @@
       <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2848,9 +3054,11 @@
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2863,9 +3071,11 @@
       <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2873,29 +3083,33 @@
         <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2904,7 +3118,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2913,7 +3127,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2922,7 +3136,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2931,7 +3145,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2940,7 +3154,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2949,7 +3163,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2958,7 +3172,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2967,7 +3181,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2976,7 +3190,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2985,7 +3199,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2994,7 +3208,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -3032,12 +3246,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3048,7 +3262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3059,7 +3273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3070,7 +3284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3081,7 +3295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964B61A8-F6CF-41F3-B5B5-F6EE93771CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D28CC-17B2-435F-9CDB-0A193E965776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,8 +2670,12 @@
       <c r="G42" s="14">
         <v>1</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
+      <c r="H42" s="13">
+        <v>3</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
@@ -2695,8 +2699,12 @@
       <c r="G43" s="14">
         <v>2</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
+      <c r="H43" s="13">
+        <v>3</v>
+      </c>
+      <c r="I43" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -2720,8 +2728,12 @@
       <c r="G44" s="16">
         <v>2</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="16"/>
+      <c r="H44" s="13">
+        <v>3</v>
+      </c>
+      <c r="I44" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -2745,8 +2757,12 @@
       <c r="G45" s="16">
         <v>3</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
+      <c r="H45" s="13">
+        <v>3</v>
+      </c>
+      <c r="I45" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D28CC-17B2-435F-9CDB-0A193E965776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F1302-10A3-4C28-83D0-CB0A250149DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="161">
   <si>
     <t>#</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>34.3</t>
+  </si>
+  <si>
+    <t>add the fields from the exel file to the editor</t>
+  </si>
+  <si>
+    <t>rename the technical owner to business owner</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I51" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I53" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I53" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1498,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,6 +2919,32 @@
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D28CC-17B2-435F-9CDB-0A193E965776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1770E574-4F72-4DCA-B44A-527CA7B264EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="185">
   <si>
     <t>#</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Testing communication with MongoDB</t>
   </si>
   <si>
-    <t xml:space="preserve">Create view </t>
-  </si>
-  <si>
     <t>Research for MVC-Pattern in NodeJs</t>
   </si>
   <si>
@@ -470,9 +467,6 @@
     <t>37.7</t>
   </si>
   <si>
-    <t>37.8</t>
-  </si>
-  <si>
     <t>Creating a plan for refactoring</t>
   </si>
   <si>
@@ -485,9 +479,6 @@
     <t>Download component</t>
   </si>
   <si>
-    <t>Creating a view</t>
-  </si>
-  <si>
     <t>Time component</t>
   </si>
   <si>
@@ -510,6 +501,93 @@
   </si>
   <si>
     <t>34.3</t>
+  </si>
+  <si>
+    <t>Implenting upload to database</t>
+  </si>
+  <si>
+    <t>Downloading from database</t>
+  </si>
+  <si>
+    <t>37.7.1</t>
+  </si>
+  <si>
+    <t>37.7.2.</t>
+  </si>
+  <si>
+    <t>Upload to database available</t>
+  </si>
+  <si>
+    <t>Download to database available</t>
+  </si>
+  <si>
+    <t>39.1</t>
+  </si>
+  <si>
+    <t>Upload function</t>
+  </si>
+  <si>
+    <t>Excel file can be uploaded temporaly into Server</t>
+  </si>
+  <si>
+    <t>39.2</t>
+  </si>
+  <si>
+    <t>Data cleaning</t>
+  </si>
+  <si>
+    <t>All rows in the table which contains empty cells should be ignored and not converted to Application Object</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>Add the imported apps to the diagram</t>
+  </si>
+  <si>
+    <t>Imported Application should be added and shown in the diagram</t>
+  </si>
+  <si>
+    <t>Research for making Data Object reusable</t>
+  </si>
+  <si>
+    <t>Evaluate in which ways we can implent this task</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>Implenting a function to read and save all Data Objects and its values</t>
+  </si>
+  <si>
+    <t>Making sure that we can work with the Data Objects and its values</t>
+  </si>
+  <si>
+    <t>Add this function into the listener and making sure it won't save duplicates</t>
+  </si>
+  <si>
+    <t>Function to read and save Data Objects by name</t>
+  </si>
+  <si>
+    <t>Implenting dropdown option for loading presets (Data Objects by name)</t>
+  </si>
+  <si>
+    <t>Implenting function into listener to fill Data Objects with the selected values from preset</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>38.4</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>38.6</t>
   </si>
 </sst>
 </file>
@@ -704,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,6 +862,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1174,8 +1256,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I51" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I61" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1498,17 +1580,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
@@ -2403,7 +2485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -2432,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -2461,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -2483,10 +2565,14 @@
       <c r="G35" s="14">
         <v>3</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H35" s="13">
+        <v>3</v>
+      </c>
+      <c r="I35" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -2515,15 +2601,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>34</v>
@@ -2543,16 +2629,17 @@
       <c r="I37" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>34</v>
@@ -2572,16 +2659,17 @@
       <c r="I38" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>34</v>
@@ -2601,8 +2689,9 @@
       <c r="I39" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>35</v>
       </c>
@@ -2630,8 +2719,9 @@
       <c r="I40" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>36</v>
       </c>
@@ -2639,7 +2729,7 @@
         <v>125</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -2647,16 +2737,17 @@
       <c r="G41" s="16"/>
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>31</v>
@@ -2677,15 +2768,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>31</v>
@@ -2706,22 +2797,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="F44" s="20">
         <v>3</v>
       </c>
@@ -2735,15 +2826,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>28</v>
@@ -2764,15 +2855,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>31</v>
@@ -2786,133 +2877,411 @@
       <c r="G46" s="16">
         <v>3</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="H46" s="15">
+        <v>3</v>
+      </c>
+      <c r="I46" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="20">
+        <v>3</v>
+      </c>
+      <c r="G47" s="16">
+        <v>3</v>
+      </c>
+      <c r="H47" s="15">
+        <v>3</v>
+      </c>
+      <c r="I47" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="20">
-        <v>3</v>
-      </c>
-      <c r="G47" s="14">
-        <v>3</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="B48" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="20">
-        <v>3</v>
-      </c>
-      <c r="G48" s="16">
-        <v>3</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="F49" s="20">
+        <v>3</v>
+      </c>
+      <c r="G49" s="14">
+        <v>6</v>
+      </c>
+      <c r="H49" s="13">
+        <v>3</v>
+      </c>
+      <c r="I49" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="20">
-        <v>3</v>
-      </c>
-      <c r="G49" s="16">
+      <c r="F50" s="20">
+        <v>3</v>
+      </c>
+      <c r="G50" s="14">
+        <v>2</v>
+      </c>
+      <c r="H50" s="13">
+        <v>3</v>
+      </c>
+      <c r="I50" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>38</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="20">
+        <v>3</v>
+      </c>
+      <c r="G52" s="14">
+        <v>3</v>
+      </c>
+      <c r="H52" s="13">
+        <v>3</v>
+      </c>
+      <c r="I52" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="20">
+        <v>3</v>
+      </c>
+      <c r="G53" s="14">
+        <v>3</v>
+      </c>
+      <c r="H53" s="13">
+        <v>3</v>
+      </c>
+      <c r="I53" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="20">
+        <v>3</v>
+      </c>
+      <c r="G54" s="14">
+        <v>2</v>
+      </c>
+      <c r="H54" s="13">
+        <v>3</v>
+      </c>
+      <c r="I54" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="20">
+        <v>3</v>
+      </c>
+      <c r="G55" s="14">
+        <v>3</v>
+      </c>
+      <c r="H55" s="13">
+        <v>3</v>
+      </c>
+      <c r="I55" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="20">
+        <v>3</v>
+      </c>
+      <c r="G56" s="14">
+        <v>2</v>
+      </c>
+      <c r="H56" s="13">
+        <v>3</v>
+      </c>
+      <c r="I56" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="20">
+        <v>3</v>
+      </c>
+      <c r="G57" s="14">
+        <v>3</v>
+      </c>
+      <c r="H57" s="13">
+        <v>3</v>
+      </c>
+      <c r="I57" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>39</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="25">
+        <v>3</v>
+      </c>
+      <c r="G59" s="16">
+        <v>4</v>
+      </c>
+      <c r="H59" s="15">
+        <v>3</v>
+      </c>
+      <c r="I59" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="25">
+        <v>3</v>
+      </c>
+      <c r="G60" s="16">
         <v>5</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>38</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="H60" s="15">
+        <v>3</v>
+      </c>
+      <c r="I60" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="25">
-        <v>3</v>
-      </c>
-      <c r="G50" s="16">
-        <v>6</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>39</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="13">
-        <v>3</v>
-      </c>
-      <c r="G51" s="14">
-        <v>6</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
+      <c r="F61" s="25">
+        <v>3</v>
+      </c>
+      <c r="G61" s="16">
+        <v>2</v>
+      </c>
+      <c r="H61" s="15">
+        <v>3</v>
+      </c>
+      <c r="I61" s="16">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1770E574-4F72-4DCA-B44A-527CA7B264EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120537C3-AEE0-470F-AFE9-0D364694BE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="13230" windowWidth="29040" windowHeight="15840" tabRatio="412" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Risks" sheetId="2" r:id="rId2"/>
-    <sheet name="Param" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Time Spent" sheetId="7" r:id="rId3"/>
+    <sheet name="Param" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="190">
   <si>
     <t>#</t>
   </si>
@@ -588,6 +592,21 @@
   </si>
   <si>
     <t>38.6</t>
+  </si>
+  <si>
+    <t>Spaltenbeschriftungen</t>
+  </si>
+  <si>
+    <t>(Leer)</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>Zeilenbeschriftungen</t>
+  </si>
+  <si>
+    <t>Summe von Real Effort in h</t>
   </si>
 </sst>
 </file>
@@ -782,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,13 +878,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1253,6 +1276,841 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44361.453187962965" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="58" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabelle2"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="#" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="39"/>
+    </cacheField>
+    <cacheField name="Task" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Result" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Responsible" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="Karsten Rudolf"/>
+        <s v="Edgar Meilinger"/>
+        <s v="Ersan Ünsal"/>
+        <s v="Jan Leonardi"/>
+        <s v="Amine Amzil"/>
+        <s v="Gökhan Ünsal"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Support by" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Planned for Sprint #" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="5">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Planned Effort in h" numFmtId="164">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Realized in Sprint #" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Real Effort in h" numFmtId="164">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="6" count="10">
+        <s v="5min"/>
+        <s v="2min"/>
+        <n v="1"/>
+        <n v="0.5"/>
+        <n v="6"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="5"/>
+        <n v="4"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="58">
+  <r>
+    <n v="1"/>
+    <s v="Creating a Discord Server for the Group"/>
+    <s v="Voice communication &amp; Filesharing"/>
+    <x v="0"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <s v="5min"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Creating a WhatsApp Group"/>
+    <s v="Text communication &amp; organising meetings"/>
+    <x v="1"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <s v="2min"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Getting all phone numbers from teammembers for inviting them"/>
+    <s v="Having phone numbers for the WhatsApp Group"/>
+    <x v="2"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Setting up a first meeting in Discord"/>
+    <s v="Get to know each other"/>
+    <x v="3"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="What development enviroment do we use ?"/>
+    <s v="all have the same development enviroment"/>
+    <x v="4"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="First meeting: What VCS do we use ? "/>
+    <s v="sharing code &amp; version controlling"/>
+    <x v="2"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Setting up the VCS (GitHub)"/>
+    <s v="sharing code &amp; version controlling"/>
+    <x v="2"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="getting started with node.js, express, GoJS"/>
+    <s v="understanding node.js, express, GoJS"/>
+    <x v="0"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Building a MindMap for the project"/>
+    <s v="Getting an overview for what we have so far (will be extended in the future)"/>
+    <x v="5"/>
+    <s v="Team"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Display Application - Canvas"/>
+    <s v="Visual Background Canvas"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf, Edgar Meilinger"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Display Application - Symbols"/>
+    <s v="Symbols can be created in the application"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf, Edgar Meilinger"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Display Application - Movement"/>
+    <s v="Elements can be moved freely in the application"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf, Ersan Ünsal"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Display Application - Symbol Palette"/>
+    <s v="Symbols can be dragged and dropped from the palette to the Main "/>
+    <x v="2"/>
+    <s v="Edgar Meilinger, Jan Leonardi"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Display Application - CSS Design"/>
+    <s v="Application Design"/>
+    <x v="0"/>
+    <s v="Jan Leonardi, Ersan Ünsal"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Application properties - Application documentation"/>
+    <s v="Basic documentation linked page for the customer"/>
+    <x v="2"/>
+    <s v="Edgar Meilinger"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Application properties - properties window (name, version, description, COTS, release date, shutdown date)"/>
+    <s v="The properties can be shown using a properties window"/>
+    <x v="1"/>
+    <s v="Jan Leonardi, Gökhan Ünsal"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Dataflows - Application linking"/>
+    <s v="Applications can be connected with directed associations (arrowheads) representing dataflows. "/>
+    <x v="4"/>
+    <s v="Gökhan Ünsal, Ersan Ünsal"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Data objects"/>
+    <s v="With following properties: Name, description &amp; personal data ? Dataflow refers to Data Object"/>
+    <x v="4"/>
+    <s v="Edgar Meilinger"/>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Data objects design"/>
+    <s v="Label is like a node; display name, description &amp; personal data"/>
+    <x v="4"/>
+    <s v="Gökhan Ünsal"/>
+    <x v="2"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Rename program to application"/>
+    <s v="Application will appear as default by the name &quot;Application&quot; and not as &quot;Program&quot;"/>
+    <x v="0"/>
+    <s v="Edgar Meilinger"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Properties dialog windows is only visiable when clicked on (non selection = no properties window)"/>
+    <s v="Properties dialog will only be visible when you click on the Application"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Link property windows shows only &quot;name&quot; and &quot;color&quot; in property window"/>
+    <s v="Property window for links will only show &quot;name&quot; &amp; &quot;color&quot;"/>
+    <x v="4"/>
+    <s v="Jan Leonardi"/>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Research for: traffic light signals"/>
+    <s v="Gathering information about how GoJS saves data to use it for the traffic light"/>
+    <x v="0"/>
+    <s v="Ersan Ünsal"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Application: traffic light signals for release / shutdown date                _x000a_(blue = default, red = past shutdown date, amber = release date in future, green = in time between release &amp; shutdown date)"/>
+    <s v="Implementing traffic light system for Applications the have a visual overview for the status"/>
+    <x v="2"/>
+    <s v="Karsten Rudolf"/>
+    <x v="2"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="3 dropdowns values for Cots: cots, propietary, undefined"/>
+    <s v="Changing free text value for COTS into a dropdown menu with 3 values(cots, propietary, undefined)"/>
+    <x v="0"/>
+    <s v="Ersan Ünsal"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Research for: Fields of decription a bit longer, several lines visible"/>
+    <s v="Change input filed to textarea"/>
+    <x v="1"/>
+    <s v="Jan Leonardi"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Graphical symbol for applications: applications need to be shown by a rectangle with two additional lines (as in the initial slide deck)."/>
+    <s v="Changing the visual desgin of the symbol for the applications"/>
+    <x v="1"/>
+    <s v="Ersan Ünsal"/>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Research: How to export files with GoJS"/>
+    <s v="Being able to solve the export tasks"/>
+    <x v="3"/>
+    <s v="Amine Amzil"/>
+    <x v="2"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Error Research: Output diagram object"/>
+    <s v="Diagramm data can be shown as JSON"/>
+    <x v="2"/>
+    <s v="Jan Leonardi"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Report data objects: A report is required so that all data objects in the application landscape can be exported as an file (csv)."/>
+    <s v="Implenting an export option to save &amp; report all data objects in the application landscape as an .csv file"/>
+    <x v="3"/>
+    <s v="Amine Amzil"/>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Setting up database and connection to the app"/>
+    <s v="Communication between app and database"/>
+    <x v="2"/>
+    <s v="Karsten Rudolf"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Fields of decription a bit longer, several lines visible"/>
+    <s v="Implementing more visible lines in the fields of description"/>
+    <x v="1"/>
+    <s v="Jan Leonardi"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Report applications working with personal data: A report needs to be created that lists any application that works with personal data."/>
+    <s v="Implenting an export option to save &amp; report all data in the application related with personal data"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="34.1"/>
+    <s v="Debugging"/>
+    <s v="Fixing bugs"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="34.2"/>
+    <s v="Download component"/>
+    <s v="Download component"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="34.3"/>
+    <s v="Time component"/>
+    <s v="Time component"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Rename the Status to COTS Label"/>
+    <s v="Changing visual text from status to COTS"/>
+    <x v="2"/>
+    <s v="Edgar Meilinger"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Refactoring the Code"/>
+    <s v="Application landscape has to be stored persistently e.g. as Database"/>
+    <x v="6"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="37.1"/>
+    <s v="Research for MVC-Pattern in NodeJs"/>
+    <s v="Using a Module for MVC Pattern"/>
+    <x v="2"/>
+    <s v="Amine Amzil"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="37.2"/>
+    <s v="Creating a plan for refactoring"/>
+    <s v="Organising for the tasks to refactor the code"/>
+    <x v="2"/>
+    <s v="Amine Amzil"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="37.3"/>
+    <s v="Generating a MVC Skeleton"/>
+    <s v="MVC folder hierarchy "/>
+    <x v="1"/>
+    <s v="Ersan Ünsal"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="37.4"/>
+    <s v="Integrate our GoJS code to the new environment"/>
+    <s v="Code before refactoring works in new Pattern"/>
+    <x v="1"/>
+    <s v="Ersan Ünsal"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="37.5"/>
+    <s v="Create models for our diagram"/>
+    <s v="Diagram generates objects "/>
+    <x v="2"/>
+    <s v="Karsten Rudolf"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="37.6"/>
+    <s v="Create routes and controllers"/>
+    <s v="URL-handling Code"/>
+    <x v="4"/>
+    <s v="Edgar Meilinger"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="37.7"/>
+    <s v="Testing communication with MongoDB"/>
+    <s v="Diagrams can be loaded and saved persistently in the Database"/>
+    <x v="6"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="37.7.1"/>
+    <s v="Implenting upload to database"/>
+    <s v="Upload to database available"/>
+    <x v="2"/>
+    <s v="Edgar Meilinger"/>
+    <x v="3"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="37.7.2."/>
+    <s v="Downloading from database"/>
+    <s v="Download to database available"/>
+    <x v="1"/>
+    <s v="Ersan Ünsal"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Make Data Object reusable"/>
+    <s v="Reusing an existing Data Object, attached to different line "/>
+    <x v="6"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="38.1"/>
+    <s v="Research for making Data Object reusable"/>
+    <s v="Evaluate in which ways we can implent this task"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="38.2"/>
+    <s v="Implenting a function to read and save all Data Objects and its values"/>
+    <s v="Making sure that we can work with the Data Objects and its values"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="38.3"/>
+    <s v="Add this function into the listener and making sure it won't save duplicates"/>
+    <s v="Add this function into the listener and making sure it won't save duplicates"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="38.4"/>
+    <s v="Function to read and save Data Objects by name"/>
+    <s v="Function to read and save Data Objects by name"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="38.5"/>
+    <s v="Implenting dropdown option for loading presets (Data Objects by name)"/>
+    <s v="Implenting dropdown option for loading presets (Data Objects by name)"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="38.6"/>
+    <s v="Implenting function into listener to fill Data Objects with the selected values from preset"/>
+    <s v="Implenting function into listener to fill Data Objects with the selected values from preset"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Data import: There is an Excel file with existing applications. _x000a_They need to be imported into the graphical editor, so that the additional applications are shown on the canvas."/>
+    <s v="Implementing an import option for excel files so you can see them on the canvas"/>
+    <x v="6"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="39.1"/>
+    <s v="Upload function"/>
+    <s v="Excel file can be uploaded temporaly into Server"/>
+    <x v="4"/>
+    <s v="Edgar Meilinger"/>
+    <x v="3"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="39.2"/>
+    <s v="Data cleaning"/>
+    <s v="All rows in the table which contains empty cells should be ignored and not converted to Application Object"/>
+    <x v="4"/>
+    <s v="Jan Leonardi"/>
+    <x v="3"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="39.3"/>
+    <s v="Add the imported apps to the diagram"/>
+    <s v="Imported Application should be added and shown in the diagram"/>
+    <x v="4"/>
+    <s v="Karsten Rudolf"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="11">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Summe von Real Effort in h" fld="8" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1582,40 +2440,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="91.140625" customWidth="1"/>
+    <col min="3" max="3" width="91.1796875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +2502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1673,7 +2531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1702,7 +2560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1731,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1760,7 +2618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1789,7 +2647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1818,7 +2676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1847,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1876,7 +2734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1905,7 +2763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1934,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1963,7 +2821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -1992,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -2021,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2050,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2079,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2108,7 +2966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -2137,7 +2995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2166,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -2195,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2224,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -2253,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -2282,7 +3140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -2311,7 +3169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -2340,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -2369,7 +3227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -2398,7 +3256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -2427,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -2456,7 +3314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -2485,7 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -2514,7 +3372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -2543,7 +3401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -2572,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -2601,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>153</v>
       </c>
@@ -2629,9 +3487,9 @@
       <c r="I37" s="14">
         <v>2</v>
       </c>
-      <c r="L37" s="32"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="29"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>154</v>
       </c>
@@ -2659,9 +3517,9 @@
       <c r="I38" s="14">
         <v>1</v>
       </c>
-      <c r="L38" s="32"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>155</v>
       </c>
@@ -2689,9 +3547,9 @@
       <c r="I39" s="14">
         <v>2</v>
       </c>
-      <c r="L39" s="32"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="29"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="24">
         <v>35</v>
       </c>
@@ -2719,9 +3577,9 @@
       <c r="I40" s="16">
         <v>1</v>
       </c>
-      <c r="L40" s="32"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="29"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="24">
         <v>36</v>
       </c>
@@ -2737,9 +3595,9 @@
       <c r="G41" s="16"/>
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
-      <c r="L41" s="32"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>137</v>
       </c>
@@ -2768,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>138</v>
       </c>
@@ -2797,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>139</v>
       </c>
@@ -2826,7 +3684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>140</v>
       </c>
@@ -2855,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>141</v>
       </c>
@@ -2884,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>142</v>
       </c>
@@ -2913,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>143</v>
       </c>
@@ -2930,11 +3788,11 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="28" t="s">
         <v>156</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -2959,11 +3817,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -2988,7 +3846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>38</v>
       </c>
@@ -3005,7 +3863,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>173</v>
       </c>
@@ -3034,7 +3892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>174</v>
       </c>
@@ -3063,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>181</v>
       </c>
@@ -3092,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>182</v>
       </c>
@@ -3121,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>183</v>
       </c>
@@ -3150,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>184</v>
       </c>
@@ -3179,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="24">
         <v>39</v>
       </c>
@@ -3196,7 +4054,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>162</v>
       </c>
@@ -3225,7 +4083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>165</v>
       </c>
@@ -3254,7 +4112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>168</v>
       </c>
@@ -3317,14 +4175,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +4199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3358,7 +4216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3375,7 +4233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3392,7 +4250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3409,7 +4267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3426,7 +4284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3443,7 +4301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3460,7 +4318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3477,7 +4335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3494,7 +4352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3503,7 +4361,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3512,7 +4370,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3521,7 +4379,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3530,7 +4388,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3539,7 +4397,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3548,7 +4406,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3557,7 +4415,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3566,7 +4424,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3575,7 +4433,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3584,7 +4442,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3593,7 +4451,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -3624,6 +4482,192 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F766830-04C4-499B-8B97-181CE7467FE7}">
+  <dimension ref="A3:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="C5" s="22">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22">
+        <v>14</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="22">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22">
+        <v>11</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="C7" s="22">
+        <v>11</v>
+      </c>
+      <c r="D7" s="22">
+        <v>12</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="C9" s="22">
+        <v>12</v>
+      </c>
+      <c r="D9" s="22">
+        <v>11</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22">
+        <v>11</v>
+      </c>
+      <c r="C10" s="22">
+        <v>7</v>
+      </c>
+      <c r="D10" s="22">
+        <v>11</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="22">
+        <v>34</v>
+      </c>
+      <c r="C12" s="22">
+        <v>49</v>
+      </c>
+      <c r="D12" s="22">
+        <v>59</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3631,12 +4675,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3647,7 +4691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3658,7 +4702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3669,7 +4713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3680,7 +4724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120537C3-AEE0-470F-AFE9-0D364694BE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FE8B8-AED4-47A1-8119-10F085A3724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="13230" windowWidth="29040" windowHeight="15840" tabRatio="412" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="215">
   <si>
     <t>#</t>
   </si>
@@ -459,18 +459,6 @@
     <t>37.3</t>
   </si>
   <si>
-    <t>37.4</t>
-  </si>
-  <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>37.6</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
     <t>Creating a plan for refactoring</t>
   </si>
   <si>
@@ -498,54 +486,30 @@
     <t>Application landscape has to be stored persistently e.g. as Database</t>
   </si>
   <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
     <t>Implenting upload to database</t>
   </si>
   <si>
     <t>Downloading from database</t>
   </si>
   <si>
-    <t>37.7.1</t>
-  </si>
-  <si>
-    <t>37.7.2.</t>
-  </si>
-  <si>
     <t>Upload to database available</t>
   </si>
   <si>
     <t>Download to database available</t>
   </si>
   <si>
-    <t>39.1</t>
-  </si>
-  <si>
     <t>Upload function</t>
   </si>
   <si>
     <t>Excel file can be uploaded temporaly into Server</t>
   </si>
   <si>
-    <t>39.2</t>
-  </si>
-  <si>
     <t>Data cleaning</t>
   </si>
   <si>
     <t>All rows in the table which contains empty cells should be ignored and not converted to Application Object</t>
   </si>
   <si>
-    <t>39.3</t>
-  </si>
-  <si>
     <t>Add the imported apps to the diagram</t>
   </si>
   <si>
@@ -558,12 +522,6 @@
     <t>Evaluate in which ways we can implent this task</t>
   </si>
   <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>38.2</t>
-  </si>
-  <si>
     <t>Implenting a function to read and save all Data Objects and its values</t>
   </si>
   <si>
@@ -582,18 +540,6 @@
     <t>Implenting function into listener to fill Data Objects with the selected values from preset</t>
   </si>
   <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>38.4</t>
-  </si>
-  <si>
-    <t>38.5</t>
-  </si>
-  <si>
-    <t>38.6</t>
-  </si>
-  <si>
     <t>Spaltenbeschriftungen</t>
   </si>
   <si>
@@ -607,6 +553,135 @@
   </si>
   <si>
     <t>Summe von Real Effort in h</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>35.6</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>35.7.1</t>
+  </si>
+  <si>
+    <t>35.7.2.</t>
+  </si>
+  <si>
+    <t>Implenting an edit function for DataObjects resuable</t>
+  </si>
+  <si>
+    <t>Rename Preset into costumer terms (Reusable Data Objects)</t>
+  </si>
+  <si>
+    <t>Making the UI more User friendly</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>Customising User Interface</t>
+  </si>
+  <si>
+    <t>Rearranging Import- / Export- / Save- and Loadbuttons</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>Creating our own window and replacing inspector for Data Objects</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>Greeting Screen</t>
+  </si>
+  <si>
+    <t>Options to select Diagrams from the database (as a list), creating a new diagram or import diagram from Excel/csv</t>
+  </si>
+  <si>
+    <t>Option for saving and loading multiple diagrams from the Database</t>
+  </si>
+  <si>
+    <t>Diagrams have their own unique keys, so they can be loaded and saved from/into the database</t>
+  </si>
+  <si>
+    <t>Customising Excel import window</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>User doesn't need to fill out each tabs -&gt; dropdown option with preloaded values</t>
+  </si>
+  <si>
+    <t>Mitigation of User errors and more user friendly</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>Error report list for the failed to import data</t>
+  </si>
+  <si>
+    <t>Getting information of the Data that didn't get imported</t>
+  </si>
+  <si>
+    <t>Research: Multiple data objects for each data flow ( How many are possible ? )</t>
+  </si>
+  <si>
+    <t>Research: Automated mapping/layout for the diagram</t>
+  </si>
+  <si>
+    <t>Refactoring html into pug for views</t>
+  </si>
+  <si>
+    <t>Checking if its possible</t>
+  </si>
+  <si>
+    <t>Frontend is now fully unified over controllers</t>
   </si>
 </sst>
 </file>
@@ -801,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,12 +957,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1994,7 +2072,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -2114,8 +2192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I61" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I74" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2438,42 +2516,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="91.1796875" customWidth="1"/>
+    <col min="3" max="3" width="97.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2531,7 +2609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2560,7 +2638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2589,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2618,7 +2696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2647,7 +2725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2676,7 +2754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2705,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2734,7 +2812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -2763,7 +2841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2792,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -2821,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2850,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -2879,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2908,7 +2986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2937,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2966,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -2995,7 +3073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3024,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3053,7 +3131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3082,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3111,7 +3189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3140,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3169,7 +3247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3198,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3227,7 +3305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3256,7 +3334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3285,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3314,7 +3392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3343,7 +3421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3372,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3401,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3430,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3459,15 +3537,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>34</v>
@@ -3489,15 +3567,15 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>34</v>
@@ -3519,15 +3597,15 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>34</v>
@@ -3549,9 +3627,9 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>122</v>
@@ -3579,15 +3657,15 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>125</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -3597,9 +3675,9 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>132</v>
@@ -3626,15 +3704,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>31</v>
@@ -3655,9 +3733,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="24" t="s">
-        <v>139</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>127</v>
@@ -3684,9 +3762,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>130</v>
@@ -3713,15 +3791,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>31</v>
@@ -3742,9 +3820,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>128</v>
@@ -3771,15 +3849,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>131</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -3788,15 +3866,15 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>31</v>
@@ -3817,15 +3895,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>28</v>
@@ -3846,9 +3924,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>123</v>
@@ -3863,15 +3941,15 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>34</v>
@@ -3892,15 +3970,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>24</v>
@@ -3921,15 +3999,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>24</v>
@@ -3950,15 +4028,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>34</v>
@@ -3979,15 +4057,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>24</v>
@@ -4008,15 +4086,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>24</v>
@@ -4037,9 +4115,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>97</v>
@@ -4054,15 +4132,15 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>36</v>
@@ -4083,15 +4161,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>36</v>
@@ -4112,15 +4190,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>36</v>
@@ -4140,6 +4218,315 @@
       <c r="I61" s="16">
         <v>2</v>
       </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
+        <v>38</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="25">
+        <v>4</v>
+      </c>
+      <c r="G62" s="16">
+        <v>6</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="24">
+        <v>39</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="25">
+        <v>4</v>
+      </c>
+      <c r="G63" s="16">
+        <v>1</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
+        <v>40</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="25">
+        <v>4</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="25">
+        <v>4</v>
+      </c>
+      <c r="G65" s="16">
+        <v>4</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="25">
+        <v>4</v>
+      </c>
+      <c r="G66" s="16">
+        <v>3</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="25">
+        <v>4</v>
+      </c>
+      <c r="G67" s="16">
+        <v>3</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
+        <v>41</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="25">
+        <v>4</v>
+      </c>
+      <c r="G68" s="16">
+        <v>5</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="24">
+        <v>42</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="25">
+        <v>4</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="25">
+        <v>4</v>
+      </c>
+      <c r="G70" s="16">
+        <v>4</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="25">
+        <v>4</v>
+      </c>
+      <c r="G71" s="16">
+        <v>4</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
+        <v>43</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="25">
+        <v>4</v>
+      </c>
+      <c r="G72" s="16">
+        <v>4</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <v>43</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="25">
+        <v>4</v>
+      </c>
+      <c r="G73" s="16">
+        <v>4</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
+        <v>44</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="25">
+        <v>4</v>
+      </c>
+      <c r="G74" s="16">
+        <v>3</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4175,14 +4562,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +4586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4216,7 +4603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4233,7 +4620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4250,7 +4637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4267,7 +4654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4284,7 +4671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4301,7 +4688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4318,7 +4705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4335,7 +4722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4352,7 +4739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4361,7 +4748,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4370,7 +4757,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4379,7 +4766,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4388,7 +4775,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4397,7 +4784,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4406,7 +4793,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4415,7 +4802,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4424,7 +4811,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4433,7 +4820,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4442,7 +4829,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4451,7 +4838,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -4485,34 +4872,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F766830-04C4-499B-8B97-181CE7467FE7}">
   <dimension ref="A3:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
-        <v>188</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4524,14 +4913,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="22">
@@ -4548,8 +4937,8 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="22">
@@ -4566,8 +4955,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="22">
@@ -4584,8 +4973,8 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="22">
@@ -4598,8 +4987,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="22">
@@ -4616,8 +5005,8 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="22">
@@ -4634,9 +5023,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
-        <v>186</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -4644,9 +5033,9 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>187</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="B12" s="22">
         <v>34</v>
@@ -4675,12 +5064,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4691,7 +5080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4702,7 +5091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4713,7 +5102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4724,7 +5113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FE8B8-AED4-47A1-8119-10F085A3724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89221185-E5C9-4CAF-AE6D-B35183FF1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="13230" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="216">
   <si>
     <t>#</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>Frontend is now fully unified over controllers</t>
+  </si>
+  <si>
+    <t>Rename Preset into customer terms (Reusable Data Objects)</t>
   </si>
 </sst>
 </file>
@@ -961,12 +964,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2518,40 +2521,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="97.7109375" customWidth="1"/>
+    <col min="3" max="3" width="97.7265625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -3567,7 +3570,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -3597,7 +3600,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -3627,7 +3630,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -3657,7 +3660,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -3675,7 +3678,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -3866,7 +3869,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -3941,7 +3944,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4132,7 +4135,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4244,12 +4247,12 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="24">
         <v>39</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>191</v>
@@ -4269,7 +4272,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="24">
         <v>40</v>
       </c>
@@ -4286,11 +4289,11 @@
       <c r="H64" s="15"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="32" t="s">
         <v>195</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -4311,11 +4314,11 @@
       <c r="H65" s="15"/>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="32" t="s">
         <v>197</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -4336,11 +4339,11 @@
       <c r="H66" s="15"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="32" t="s">
         <v>199</v>
       </c>
       <c r="C67" s="15" t="s">
@@ -4361,7 +4364,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="24">
         <v>41</v>
       </c>
@@ -4386,7 +4389,7 @@
       <c r="H68" s="15"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="24">
         <v>42</v>
       </c>
@@ -4403,11 +4406,11 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="32" t="s">
         <v>205</v>
       </c>
       <c r="C70" s="15" t="s">
@@ -4428,11 +4431,11 @@
       <c r="H70" s="15"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="32" t="s">
         <v>208</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -4453,7 +4456,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="24">
         <v>43</v>
       </c>
@@ -4478,7 +4481,7 @@
       <c r="H72" s="15"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="24">
         <v>43</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>28</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F73" s="25">
         <v>4</v>
@@ -4503,7 +4506,7 @@
       <c r="H73" s="15"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="24">
         <v>44</v>
       </c>
@@ -4562,14 +4565,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4748,7 +4751,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4757,7 +4760,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4766,7 +4769,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4775,7 +4778,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4784,7 +4787,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4793,7 +4796,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4802,7 +4805,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4811,7 +4814,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4820,7 +4823,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4829,7 +4832,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4838,7 +4841,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -4876,22 +4879,22 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -4987,7 +4990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -5005,7 +5008,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -5033,7 +5036,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -5064,12 +5067,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89221185-E5C9-4CAF-AE6D-B35183FF1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36792E10-DC89-4BAB-8CE2-723F536C2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="13230" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="220">
   <si>
     <t>#</t>
   </si>
@@ -685,6 +685,18 @@
   </si>
   <si>
     <t>Rename Preset into customer terms (Reusable Data Objects)</t>
+  </si>
+  <si>
+    <t>Database Credentials are accessable in the application</t>
+  </si>
+  <si>
+    <t>Research: Preset for excelsheets with same names</t>
+  </si>
+  <si>
+    <t>Multiple data objects for each data flow</t>
+  </si>
+  <si>
+    <t>Automatic layout for nodes and bindings</t>
   </si>
 </sst>
 </file>
@@ -2195,8 +2207,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I74" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I78" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I78" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2519,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4530,6 +4542,68 @@
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="24">
+        <v>45</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="24">
+        <v>46</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="24">
+        <v>47</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="24">
+        <v>48</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36792E10-DC89-4BAB-8CE2-723F536C2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF5558-4E95-4E25-AEC7-3B918389F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="13230" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -2533,25 +2533,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="97.7265625" customWidth="1"/>
+    <col min="3" max="3" width="97.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>39</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>40</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>193</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>196</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>198</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>41</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="H68" s="15"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>42</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>204</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>207</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>43</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="H72" s="15"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>43</v>
       </c>
@@ -4518,7 +4518,7 @@
       <c r="H73" s="15"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="H74" s="15"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>45</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>46</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>47</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>48</v>
       </c>
@@ -4639,14 +4639,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -4953,22 +4953,22 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -5110,7 +5110,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -5141,12 +5141,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36792E10-DC89-4BAB-8CE2-723F536C2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3CE8D0-6B6E-4EA7-831B-2453607F98A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="13230" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-4290" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="232">
   <si>
     <t>#</t>
   </si>
@@ -609,9 +609,6 @@
     <t>35.7.2.</t>
   </si>
   <si>
-    <t>Implenting an edit function for DataObjects resuable</t>
-  </si>
-  <si>
     <t>Rename Preset into costumer terms (Reusable Data Objects)</t>
   </si>
   <si>
@@ -697,6 +694,45 @@
   </si>
   <si>
     <t>Automatic layout for nodes and bindings</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>Refactoring for multiple DataObjects</t>
+  </si>
+  <si>
+    <t>Refactoring to be able to implement multiple DataObjects</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>Load and edit Data Objects</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>Delete DataObjects</t>
+  </si>
+  <si>
+    <t>Visualized as table so you can choose and edit from this table</t>
+  </si>
+  <si>
+    <t>Being able to choose DataObjects from table and delete it</t>
+  </si>
+  <si>
+    <t>38.4</t>
+  </si>
+  <si>
+    <t>Editing design for table etc.</t>
+  </si>
+  <si>
+    <t>Make UI more userfriendly</t>
+  </si>
+  <si>
+    <t>Making DataObjects resuable</t>
   </si>
 </sst>
 </file>
@@ -2087,7 +2123,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -2207,8 +2243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I78" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I78" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I82" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I82" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2531,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4239,130 +4275,128 @@
         <v>38</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="25">
-        <v>4</v>
-      </c>
-      <c r="G62" s="16">
-        <v>6</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="16"/>
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="24">
+      <c r="A63" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="20">
+        <v>4</v>
+      </c>
+      <c r="G63" s="14">
+        <v>4</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="20">
+        <v>4</v>
+      </c>
+      <c r="G64" s="14">
+        <v>4</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="20">
+        <v>5</v>
+      </c>
+      <c r="G65" s="14">
+        <v>2</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="20">
+        <v>5</v>
+      </c>
+      <c r="G66" s="14">
+        <v>4</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="24">
         <v>39</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="15" t="s">
+      <c r="B67" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F63" s="25">
-        <v>4</v>
-      </c>
-      <c r="G63" s="16">
-        <v>1</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="24">
-        <v>40</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="25">
-        <v>4</v>
-      </c>
-      <c r="G64" s="16"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="25">
-        <v>4</v>
-      </c>
-      <c r="G65" s="16">
-        <v>4</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="16"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="25">
-        <v>4</v>
-      </c>
-      <c r="G66" s="16">
-        <v>3</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="16"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>36</v>
@@ -4371,239 +4405,331 @@
         <v>4</v>
       </c>
       <c r="G67" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="24">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>28</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
       <c r="F68" s="25">
         <v>4</v>
       </c>
-      <c r="G68" s="16">
-        <v>5</v>
-      </c>
+      <c r="G68" s="16"/>
       <c r="H68" s="15"/>
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="24">
-        <v>42</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="A69" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="F69" s="25">
         <v>4</v>
       </c>
-      <c r="G69" s="16"/>
+      <c r="G69" s="16">
+        <v>4</v>
+      </c>
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F70" s="25">
         <v>4</v>
       </c>
       <c r="G70" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D71" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="F71" s="25">
         <v>4</v>
       </c>
       <c r="G71" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="24">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>213</v>
+        <v>200</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="D72" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="F72" s="25">
         <v>4</v>
       </c>
       <c r="G72" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>24</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
       <c r="F73" s="25">
         <v>4</v>
       </c>
-      <c r="G73" s="16">
-        <v>4</v>
-      </c>
+      <c r="G73" s="16"/>
       <c r="H73" s="15"/>
       <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="24">
-        <v>44</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>214</v>
+      <c r="A74" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="D74" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="F74" s="25">
         <v>4</v>
       </c>
       <c r="G74" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="24">
-        <v>45</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="16"/>
+      <c r="A75" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="25">
+        <v>4</v>
+      </c>
+      <c r="G75" s="16">
+        <v>4</v>
+      </c>
       <c r="H75" s="15"/>
       <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="24">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>212</v>
+      </c>
       <c r="D76" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="25">
+        <v>4</v>
+      </c>
+      <c r="G76" s="16">
+        <v>4</v>
+      </c>
       <c r="H76" s="15"/>
       <c r="I76" s="16"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="24">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="16"/>
+        <v>210</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="25">
+        <v>4</v>
+      </c>
+      <c r="G77" s="16">
+        <v>4</v>
+      </c>
       <c r="H77" s="15"/>
       <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="24">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="16"/>
+        <v>211</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="25">
+        <v>4</v>
+      </c>
+      <c r="G78" s="16">
+        <v>3</v>
+      </c>
       <c r="H78" s="15"/>
       <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="24">
+        <v>45</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="24">
+        <v>46</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="24">
+        <v>47</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="16"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="24">
+        <v>48</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4950,7 +5076,7 @@
   <dimension ref="A3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3CE8D0-6B6E-4EA7-831B-2453607F98A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC4F3A-E133-40E6-9D1E-B0A225CFEB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-4290" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="235">
   <si>
     <t>#</t>
   </si>
@@ -733,6 +733,15 @@
   </si>
   <si>
     <t>Making DataObjects resuable</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>Export to CSV has to be refactored</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refactor CSV export</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2132,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -2243,8 +2252,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I82" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I82" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I83" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I83" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2567,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4386,78 +4395,80 @@
       <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="24">
-        <v>39</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" s="25">
-        <v>4</v>
-      </c>
-      <c r="G67" s="16">
-        <v>1</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
+      <c r="A67" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="20">
+        <v>5</v>
+      </c>
+      <c r="G67" s="14">
+        <v>5</v>
+      </c>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
+        <v>214</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="F68" s="25">
         <v>4</v>
       </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
+      <c r="G68" s="16">
+        <v>1</v>
+      </c>
+      <c r="H68" s="15">
+        <v>4</v>
+      </c>
+      <c r="I68" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="25">
-        <v>4</v>
-      </c>
-      <c r="G69" s="16">
-        <v>4</v>
-      </c>
+      <c r="A69" s="24">
+        <v>40</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="16"/>
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>191</v>
@@ -4472,26 +4483,30 @@
         <v>4</v>
       </c>
       <c r="G70" s="16">
-        <v>3</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="H70" s="15">
+        <v>4</v>
+      </c>
+      <c r="I70" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F71" s="25">
         <v>4</v>
@@ -4503,81 +4518,89 @@
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="24">
-        <v>41</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>200</v>
+      <c r="A72" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F72" s="25">
         <v>4</v>
       </c>
       <c r="G72" s="16">
-        <v>5</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="H72" s="15">
+        <v>4</v>
+      </c>
+      <c r="I72" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F73" s="25">
         <v>4</v>
       </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="16"/>
+      <c r="G73" s="16">
+        <v>5</v>
+      </c>
+      <c r="H73" s="15">
+        <v>4</v>
+      </c>
+      <c r="I73" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="A74" s="24">
+        <v>42</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
       <c r="F74" s="25">
         <v>4</v>
       </c>
-      <c r="G74" s="16">
-        <v>4</v>
-      </c>
+      <c r="G74" s="16"/>
       <c r="H74" s="15"/>
       <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>36</v>
@@ -4595,20 +4618,20 @@
       <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="24">
-        <v>43</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>212</v>
+      <c r="A76" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="D76" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="F76" s="25">
         <v>4</v>
@@ -4624,7 +4647,7 @@
         <v>43</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C77" s="23" t="s">
         <v>212</v>
@@ -4633,7 +4656,7 @@
         <v>28</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F77" s="25">
         <v>4</v>
@@ -4642,59 +4665,73 @@
         <v>4</v>
       </c>
       <c r="H77" s="15"/>
-      <c r="I77" s="16"/>
+      <c r="I77" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F78" s="25">
         <v>4</v>
       </c>
       <c r="G78" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="15"/>
-      <c r="I78" s="16"/>
+      <c r="I78" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="24">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="16"/>
+        <v>211</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="25">
+        <v>4</v>
+      </c>
+      <c r="G79" s="16">
+        <v>3</v>
+      </c>
       <c r="H79" s="15"/>
-      <c r="I79" s="16"/>
+      <c r="I79" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" s="15"/>
-      <c r="D80" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="25"/>
       <c r="G80" s="16"/>
@@ -4703,25 +4740,33 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="24">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="16"/>
+      <c r="D81" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="25">
+        <v>4</v>
+      </c>
+      <c r="G81" s="16">
+        <v>4</v>
+      </c>
       <c r="H81" s="15"/>
       <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="24">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -4730,6 +4775,21 @@
       <c r="G82" s="16"/>
       <c r="H82" s="15"/>
       <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="24">
+        <v>48</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC4F3A-E133-40E6-9D1E-B0A225CFEB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC131F4-8C82-4EA8-A258-A8F1F67FC6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-4290" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="235">
   <si>
     <t>#</t>
   </si>
@@ -690,9 +690,6 @@
     <t>Research: Preset for excelsheets with same names</t>
   </si>
   <si>
-    <t>Multiple data objects for each data flow</t>
-  </si>
-  <si>
     <t>Automatic layout for nodes and bindings</t>
   </si>
   <si>
@@ -732,9 +729,6 @@
     <t>Make UI more userfriendly</t>
   </si>
   <si>
-    <t>Making DataObjects resuable</t>
-  </si>
-  <si>
     <t>38.5</t>
   </si>
   <si>
@@ -742,6 +736,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Refactor CSV export</t>
+  </si>
+  <si>
+    <t>Preset for excelsheets with same names</t>
+  </si>
+  <si>
+    <t>Making DataObjects resuable and multiable DataObjects for each link</t>
   </si>
 </sst>
 </file>
@@ -1417,19 +1417,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44361.453187962965" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="58" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44372.934331365737" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="79" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle2"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="#" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="39"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="48"/>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Result" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Responsible" numFmtId="0">
       <sharedItems containsBlank="1" count="7">
@@ -1446,38 +1446,22 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Planned for Sprint #" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="5">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
     </cacheField>
     <cacheField name="Planned Effort in h" numFmtId="164">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="6"/>
     </cacheField>
     <cacheField name="Realized in Sprint #" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="4">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <m/>
+        <n v="4"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Real Effort in h" numFmtId="164">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="6" count="10">
-        <s v="5min"/>
-        <s v="2min"/>
-        <n v="1"/>
-        <n v="0.5"/>
-        <n v="6"/>
-        <n v="3"/>
-        <n v="2"/>
-        <n v="5"/>
-        <n v="4"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="6"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1489,17 +1473,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="58">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="79">
   <r>
     <n v="1"/>
     <s v="Creating a Discord Server for the Group"/>
     <s v="Voice communication &amp; Filesharing"/>
     <x v="0"/>
     <s v="Team"/>
+    <n v="0"/>
+    <s v="5min"/>
     <x v="0"/>
     <s v="5min"/>
-    <x v="0"/>
-    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -1507,10 +1491,10 @@
     <s v="Text communication &amp; organising meetings"/>
     <x v="1"/>
     <s v="Team"/>
+    <n v="0"/>
+    <s v="2min"/>
     <x v="0"/>
     <s v="2min"/>
-    <x v="0"/>
-    <x v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -1518,10 +1502,10 @@
     <s v="Having phone numbers for the WhatsApp Group"/>
     <x v="2"/>
     <s v="Team"/>
-    <x v="0"/>
+    <n v="0"/>
     <n v="0.5"/>
     <x v="0"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="4"/>
@@ -1529,10 +1513,10 @@
     <s v="Get to know each other"/>
     <x v="3"/>
     <s v="Team"/>
+    <n v="0"/>
+    <n v="0.5"/>
     <x v="0"/>
     <n v="0.5"/>
-    <x v="0"/>
-    <x v="3"/>
   </r>
   <r>
     <n v="5"/>
@@ -1540,10 +1524,10 @@
     <s v="all have the same development enviroment"/>
     <x v="4"/>
     <s v="Team"/>
+    <n v="0"/>
+    <n v="0.5"/>
     <x v="0"/>
     <n v="0.5"/>
-    <x v="0"/>
-    <x v="3"/>
   </r>
   <r>
     <n v="6"/>
@@ -1551,10 +1535,10 @@
     <s v="sharing code &amp; version controlling"/>
     <x v="2"/>
     <s v="Team"/>
+    <n v="0"/>
+    <n v="0.5"/>
     <x v="0"/>
     <n v="0.5"/>
-    <x v="0"/>
-    <x v="3"/>
   </r>
   <r>
     <n v="7"/>
@@ -1562,10 +1546,10 @@
     <s v="sharing code &amp; version controlling"/>
     <x v="2"/>
     <s v="Team"/>
+    <n v="0"/>
+    <n v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <x v="0"/>
-    <x v="2"/>
   </r>
   <r>
     <n v="8"/>
@@ -1573,10 +1557,10 @@
     <s v="understanding node.js, express, GoJS"/>
     <x v="0"/>
     <s v="Team"/>
+    <n v="0"/>
+    <n v="6"/>
     <x v="0"/>
     <n v="6"/>
-    <x v="0"/>
-    <x v="4"/>
   </r>
   <r>
     <n v="9"/>
@@ -1584,10 +1568,10 @@
     <s v="Getting an overview for what we have so far (will be extended in the future)"/>
     <x v="5"/>
     <s v="Team"/>
+    <n v="0"/>
+    <n v="0.5"/>
     <x v="0"/>
     <n v="0.5"/>
-    <x v="0"/>
-    <x v="3"/>
   </r>
   <r>
     <n v="10"/>
@@ -1595,10 +1579,10 @@
     <s v="Visual Background Canvas"/>
     <x v="3"/>
     <s v="Karsten Rudolf, Edgar Meilinger"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="2"/>
     <x v="0"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="11"/>
@@ -1606,10 +1590,10 @@
     <s v="Symbols can be created in the application"/>
     <x v="3"/>
     <s v="Karsten Rudolf, Edgar Meilinger"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="3"/>
     <x v="0"/>
-    <x v="5"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="12"/>
@@ -1617,10 +1601,10 @@
     <s v="Elements can be moved freely in the application"/>
     <x v="3"/>
     <s v="Karsten Rudolf, Ersan Ünsal"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="1"/>
     <x v="0"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="13"/>
@@ -1628,10 +1612,10 @@
     <s v="Symbols can be dragged and dropped from the palette to the Main "/>
     <x v="2"/>
     <s v="Edgar Meilinger, Jan Leonardi"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="2"/>
     <x v="0"/>
-    <x v="6"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="14"/>
@@ -1639,10 +1623,10 @@
     <s v="Application Design"/>
     <x v="0"/>
     <s v="Jan Leonardi, Ersan Ünsal"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="6"/>
     <x v="0"/>
-    <x v="7"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="15"/>
@@ -1650,10 +1634,10 @@
     <s v="Basic documentation linked page for the customer"/>
     <x v="2"/>
     <s v="Edgar Meilinger"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="2"/>
     <x v="0"/>
-    <x v="6"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="16"/>
@@ -1661,10 +1645,10 @@
     <s v="The properties can be shown using a properties window"/>
     <x v="1"/>
     <s v="Jan Leonardi, Gökhan Ünsal"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="4"/>
     <x v="0"/>
-    <x v="8"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="17"/>
@@ -1672,10 +1656,10 @@
     <s v="Applications can be connected with directed associations (arrowheads) representing dataflows. "/>
     <x v="4"/>
     <s v="Gökhan Ünsal, Ersan Ünsal"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="6"/>
     <x v="0"/>
-    <x v="4"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="18"/>
@@ -1683,10 +1667,10 @@
     <s v="With following properties: Name, description &amp; personal data ? Dataflow refers to Data Object"/>
     <x v="4"/>
     <s v="Edgar Meilinger"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="4"/>
     <x v="1"/>
-    <x v="8"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="19"/>
@@ -1694,10 +1678,10 @@
     <s v="Label is like a node; display name, description &amp; personal data"/>
     <x v="4"/>
     <s v="Gökhan Ünsal"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="6"/>
     <x v="1"/>
-    <x v="4"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="20"/>
@@ -1705,10 +1689,10 @@
     <s v="Application will appear as default by the name &quot;Application&quot; and not as &quot;Program&quot;"/>
     <x v="0"/>
     <s v="Edgar Meilinger"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="1"/>
     <x v="1"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="21"/>
@@ -1716,10 +1700,10 @@
     <s v="Properties dialog will only be visible when you click on the Application"/>
     <x v="3"/>
     <s v="Karsten Rudolf"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="2"/>
     <x v="1"/>
-    <x v="6"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="22"/>
@@ -1727,10 +1711,10 @@
     <s v="Property window for links will only show &quot;name&quot; &amp; &quot;color&quot;"/>
     <x v="4"/>
     <s v="Jan Leonardi"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="2"/>
     <x v="1"/>
-    <x v="6"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="23"/>
@@ -1738,10 +1722,10 @@
     <s v="Gathering information about how GoJS saves data to use it for the traffic light"/>
     <x v="0"/>
     <s v="Ersan Ünsal"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="3"/>
     <x v="1"/>
-    <x v="5"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="24"/>
@@ -1749,10 +1733,10 @@
     <s v="Implementing traffic light system for Applications the have a visual overview for the status"/>
     <x v="2"/>
     <s v="Karsten Rudolf"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <x v="7"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="25"/>
@@ -1760,10 +1744,10 @@
     <s v="Changing free text value for COTS into a dropdown menu with 3 values(cots, propietary, undefined)"/>
     <x v="0"/>
     <s v="Ersan Ünsal"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="3"/>
     <x v="1"/>
-    <x v="5"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="26"/>
@@ -1771,10 +1755,10 @@
     <s v="Change input filed to textarea"/>
     <x v="1"/>
     <s v="Jan Leonardi"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="3"/>
     <x v="1"/>
-    <x v="5"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="27"/>
@@ -1782,10 +1766,10 @@
     <s v="Changing the visual desgin of the symbol for the applications"/>
     <x v="1"/>
     <s v="Ersan Ünsal"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="4"/>
     <x v="1"/>
-    <x v="8"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="28"/>
@@ -1793,10 +1777,10 @@
     <s v="Being able to solve the export tasks"/>
     <x v="3"/>
     <s v="Amine Amzil"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="6"/>
     <x v="1"/>
-    <x v="4"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="29"/>
@@ -1804,10 +1788,10 @@
     <s v="Diagramm data can be shown as JSON"/>
     <x v="2"/>
     <s v="Jan Leonardi"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="3"/>
     <x v="1"/>
-    <x v="5"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="30"/>
@@ -1815,10 +1799,10 @@
     <s v="Implenting an export option to save &amp; report all data objects in the application landscape as an .csv file"/>
     <x v="3"/>
     <s v="Amine Amzil"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="4"/>
     <x v="1"/>
-    <x v="8"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="31"/>
@@ -1826,10 +1810,10 @@
     <s v="Communication between app and database"/>
     <x v="2"/>
     <s v="Karsten Rudolf"/>
-    <x v="2"/>
+    <n v="2"/>
     <n v="3"/>
     <x v="1"/>
-    <x v="5"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="32"/>
@@ -1837,10 +1821,10 @@
     <s v="Implementing more visible lines in the fields of description"/>
     <x v="1"/>
     <s v="Jan Leonardi"/>
+    <n v="2"/>
+    <n v="3"/>
     <x v="2"/>
     <n v="3"/>
-    <x v="2"/>
-    <x v="5"/>
   </r>
   <r>
     <n v="33"/>
@@ -1848,292 +1832,523 @@
     <s v="Implenting an export option to save &amp; report all data in the application related with personal data"/>
     <x v="0"/>
     <s v="Jan Leonardi"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="34.1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="33.1"/>
     <s v="Debugging"/>
     <s v="Fixing bugs"/>
     <x v="3"/>
     <s v="Karsten Rudolf"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="2"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="34.2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="33.2"/>
     <s v="Download component"/>
     <s v="Download component"/>
     <x v="3"/>
     <s v="Karsten Rudolf"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="1"/>
     <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="34.3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="33.3"/>
     <s v="Time component"/>
     <s v="Time component"/>
     <x v="3"/>
     <s v="Karsten Rudolf"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="2"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="35"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="34"/>
     <s v="Rename the Status to COTS Label"/>
     <s v="Changing visual text from status to COTS"/>
     <x v="2"/>
     <s v="Edgar Meilinger"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="1"/>
     <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="36"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="35"/>
     <s v="Refactoring the Code"/>
     <s v="Application landscape has to be stored persistently e.g. as Database"/>
     <x v="6"/>
     <m/>
-    <x v="4"/>
+    <m/>
     <m/>
     <x v="3"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="37.1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="35.1"/>
     <s v="Research for MVC-Pattern in NodeJs"/>
     <s v="Using a Module for MVC Pattern"/>
     <x v="2"/>
     <s v="Amine Amzil"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="1"/>
     <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="37.2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="35.2"/>
     <s v="Creating a plan for refactoring"/>
     <s v="Organising for the tasks to refactor the code"/>
     <x v="2"/>
     <s v="Amine Amzil"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="2"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="37.3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="35.3"/>
     <s v="Generating a MVC Skeleton"/>
     <s v="MVC folder hierarchy "/>
     <x v="1"/>
     <s v="Ersan Ünsal"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="2"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="37.4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="35.4"/>
     <s v="Integrate our GoJS code to the new environment"/>
     <s v="Code before refactoring works in new Pattern"/>
     <x v="1"/>
     <s v="Ersan Ünsal"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="37.5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="35.5"/>
     <s v="Create models for our diagram"/>
     <s v="Diagram generates objects "/>
     <x v="2"/>
     <s v="Karsten Rudolf"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="37.6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="35.6"/>
     <s v="Create routes and controllers"/>
     <s v="URL-handling Code"/>
     <x v="4"/>
     <s v="Edgar Meilinger"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="37.7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="35.7"/>
     <s v="Testing communication with MongoDB"/>
     <s v="Diagrams can be loaded and saved persistently in the Database"/>
     <x v="6"/>
     <m/>
-    <x v="4"/>
+    <m/>
     <m/>
     <x v="3"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="37.7.1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="35.7.1"/>
     <s v="Implenting upload to database"/>
     <s v="Upload to database available"/>
     <x v="2"/>
     <s v="Edgar Meilinger"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="6"/>
     <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="37.7.2."/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="35.7.2."/>
     <s v="Downloading from database"/>
     <s v="Download to database available"/>
     <x v="1"/>
     <s v="Ersan Ünsal"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="2"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="38"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="36"/>
     <s v="Make Data Object reusable"/>
     <s v="Reusing an existing Data Object, attached to different line "/>
     <x v="6"/>
     <m/>
-    <x v="4"/>
+    <m/>
     <m/>
     <x v="3"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="38.1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="36.1"/>
     <s v="Research for making Data Object reusable"/>
     <s v="Evaluate in which ways we can implent this task"/>
     <x v="3"/>
     <s v="Karsten Rudolf"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="38.2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="36.2"/>
     <s v="Implenting a function to read and save all Data Objects and its values"/>
     <s v="Making sure that we can work with the Data Objects and its values"/>
     <x v="0"/>
     <s v="Jan Leonardi"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="38.3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="36.3"/>
     <s v="Add this function into the listener and making sure it won't save duplicates"/>
     <s v="Add this function into the listener and making sure it won't save duplicates"/>
     <x v="0"/>
     <s v="Jan Leonardi"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="2"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="38.4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="36.4"/>
     <s v="Function to read and save Data Objects by name"/>
     <s v="Function to read and save Data Objects by name"/>
     <x v="3"/>
     <s v="Karsten Rudolf"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="38.5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="36.5"/>
     <s v="Implenting dropdown option for loading presets (Data Objects by name)"/>
     <s v="Implenting dropdown option for loading presets (Data Objects by name)"/>
     <x v="0"/>
     <s v="Jan Leonardi"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="2"/>
     <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="38.6"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="36.6"/>
     <s v="Implenting function into listener to fill Data Objects with the selected values from preset"/>
     <s v="Implenting function into listener to fill Data Objects with the selected values from preset"/>
     <x v="0"/>
     <s v="Jan Leonardi"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="39"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="37"/>
     <s v="Data import: There is an Excel file with existing applications. _x000a_They need to be imported into the graphical editor, so that the additional applications are shown on the canvas."/>
     <s v="Implementing an import option for excel files so you can see them on the canvas"/>
     <x v="6"/>
     <m/>
-    <x v="4"/>
+    <m/>
     <m/>
     <x v="3"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="39.1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="37.1"/>
     <s v="Upload function"/>
     <s v="Excel file can be uploaded temporaly into Server"/>
     <x v="4"/>
     <s v="Edgar Meilinger"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="4"/>
     <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="39.2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="37.2"/>
     <s v="Data cleaning"/>
     <s v="All rows in the table which contains empty cells should be ignored and not converted to Application Object"/>
     <x v="4"/>
     <s v="Jan Leonardi"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="5"/>
     <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="39.3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="37.3"/>
     <s v="Add the imported apps to the diagram"/>
     <s v="Imported Application should be added and shown in the diagram"/>
     <x v="4"/>
     <s v="Karsten Rudolf"/>
-    <x v="3"/>
+    <n v="3"/>
     <n v="2"/>
     <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Making DataObjects resuable and multiable DataObjects for each link"/>
+    <m/>
     <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="38.1"/>
+    <s v="Refactoring for multiple DataObjects"/>
+    <s v="Refactoring to be able to implement multiple DataObjects"/>
+    <x v="3"/>
+    <s v="Ersan Ünsal"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="38.2"/>
+    <s v="Load and edit Data Objects"/>
+    <s v="Visualized as table so you can choose and edit from this table"/>
+    <x v="3"/>
+    <s v="Edgar Meilinger"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="38.3"/>
+    <s v="Delete DataObjects"/>
+    <s v="Being able to choose DataObjects from table and delete it"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <n v="5"/>
+    <n v="2"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="38.4"/>
+    <s v="Editing design for table etc."/>
+    <s v="Make UI more userfriendly"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="38.5"/>
+    <s v=" Refactor CSV export"/>
+    <s v="Export to CSV has to be refactored"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <n v="5"/>
+    <n v="5"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Rename Preset into customer terms (Reusable Data Objects)"/>
+    <s v="Rename Preset into costumer terms (Reusable Data Objects)"/>
+    <x v="1"/>
+    <s v="Amine Amzil"/>
+    <n v="4"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Customising User Interface"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="40.1"/>
+    <s v="Rearranging Import- / Export- / Save- and Loadbuttons"/>
+    <s v="Making the UI more User friendly"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="40.2"/>
+    <s v="Creating our own window and replacing inspector for Data Objects"/>
+    <s v="Making the UI more User friendly"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <n v="4"/>
+    <n v="3"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="40.3"/>
+    <s v="Greeting Screen"/>
+    <s v="Options to select Diagrams from the database (as a list), creating a new diagram or import diagram from Excel/csv"/>
+    <x v="2"/>
+    <s v="Amine Amzil"/>
+    <n v="4"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Option for saving and loading multiple diagrams from the Database"/>
+    <s v="Diagrams have their own unique keys, so they can be loaded and saved from/into the database"/>
+    <x v="2"/>
+    <s v="Edgar Meilinger"/>
+    <n v="4"/>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Customising Excel import window"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="42.1"/>
+    <s v="User doesn't need to fill out each tabs -&gt; dropdown option with preloaded values"/>
+    <s v="Mitigation of User errors and more user friendly"/>
+    <x v="4"/>
+    <s v="Edgar Meilinger"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="42.2"/>
+    <s v="Error report list for the failed to import data"/>
+    <s v="Getting information of the Data that didn't get imported"/>
+    <x v="4"/>
+    <s v="Edgar Meilinger"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Research: Multiple data objects for each data flow ( How many are possible ? )"/>
+    <s v="Checking if its possible"/>
+    <x v="1"/>
+    <s v="Jan Leonardi"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Research: Automated mapping/layout for the diagram"/>
+    <s v="Checking if its possible"/>
+    <x v="1"/>
+    <s v="Karsten Rudolf"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Refactoring html into pug for views"/>
+    <s v="Frontend is now fully unified over controllers"/>
+    <x v="1"/>
+    <s v="Ersan Ünsal"/>
+    <n v="4"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Database Credentials are accessable in the application"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Research: Preset for excelsheets with same names"/>
+    <s v="Preset for excelsheets with same names"/>
+    <x v="4"/>
+    <s v="Jan Leonardi"/>
+    <n v="4"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Automatic layout for nodes and bindings"/>
+    <s v="Making the UI more User friendly"/>
+    <x v="1"/>
+    <s v="Amine Amzil"/>
+    <n v="4"/>
+    <n v="5"/>
+    <x v="3"/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2151,41 +2366,19 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="11">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -2219,7 +2412,7 @@
   <colFields count="1">
     <field x="7"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="6">
     <i>
       <x/>
     </i>
@@ -2231,6 +2424,9 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -2252,8 +2448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I83" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I83" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I82" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I82" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2576,27 +2772,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="97.7265625" customWidth="1"/>
+    <col min="3" max="3" width="97.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
@@ -2611,7 +2807,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2669,7 +2865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2698,7 +2894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2727,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2756,7 +2952,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2785,7 +2981,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2814,7 +3010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2843,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2872,7 +3068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -2901,7 +3097,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2930,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -2959,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2988,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3017,7 +3213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3046,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3075,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3104,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3133,7 +3329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3162,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3191,7 +3387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3220,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3249,7 +3445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3278,7 +3474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3307,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3336,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3365,7 +3561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3394,7 +3590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3423,7 +3619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3452,7 +3648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3481,7 +3677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3510,7 +3706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3539,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3568,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3597,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -3627,7 +3823,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -3657,7 +3853,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -3687,7 +3883,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -3717,7 +3913,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -3735,7 +3931,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -3764,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -3793,7 +3989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -3822,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -3851,7 +4047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -3880,7 +4076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -3909,7 +4105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -3926,7 +4122,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -3955,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -3984,7 +4180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4001,7 +4197,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4030,7 +4226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4059,7 +4255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4088,7 +4284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4117,7 +4313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4146,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4175,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4192,7 +4388,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4221,7 +4417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4250,7 +4446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4279,12 +4475,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>38</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="15"/>
@@ -4294,15 +4490,15 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>34</v>
@@ -4319,15 +4515,15 @@
       <c r="H63" s="13"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="C64" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>34</v>
@@ -4344,15 +4540,15 @@
       <c r="H64" s="13"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="C65" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>34</v>
@@ -4369,15 +4565,15 @@
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>24</v>
@@ -4394,15 +4590,15 @@
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="C67" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>34</v>
@@ -4419,7 +4615,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>39</v>
       </c>
@@ -4448,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>40</v>
       </c>
@@ -4463,7 +4659,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>192</v>
       </c>
@@ -4492,7 +4688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>195</v>
       </c>
@@ -4517,7 +4713,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>197</v>
       </c>
@@ -4546,7 +4742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>41</v>
       </c>
@@ -4575,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>42</v>
       </c>
@@ -4585,14 +4781,12 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="25">
-        <v>4</v>
-      </c>
+      <c r="F74" s="25"/>
       <c r="G74" s="16"/>
       <c r="H74" s="15"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>203</v>
       </c>
@@ -4617,7 +4811,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>206</v>
       </c>
@@ -4639,10 +4833,14 @@
       <c r="G76" s="16">
         <v>4</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H76" s="15">
+        <v>4</v>
+      </c>
+      <c r="I76" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>43</v>
       </c>
@@ -4669,7 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>43</v>
       </c>
@@ -4696,7 +4894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>44</v>
       </c>
@@ -4723,7 +4921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45</v>
       </c>
@@ -4738,14 +4936,16 @@
       <c r="H80" s="15"/>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>46</v>
       </c>
       <c r="B81" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="15"/>
+      <c r="C81" s="15" t="s">
+        <v>233</v>
+      </c>
       <c r="D81" s="15" t="s">
         <v>36</v>
       </c>
@@ -4756,40 +4956,39 @@
         <v>4</v>
       </c>
       <c r="G81" s="16">
+        <v>3</v>
+      </c>
+      <c r="H81" s="15">
         <v>4</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="16"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B82" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="16"/>
+      <c r="C82" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="25">
+        <v>4</v>
+      </c>
+      <c r="G82" s="16">
+        <v>5</v>
+      </c>
       <c r="H82" s="15"/>
       <c r="I82" s="16"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="24">
-        <v>48</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4825,14 +5024,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +5048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4866,7 +5065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4883,7 +5082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4900,7 +5099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4917,7 +5116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4934,7 +5133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4951,7 +5150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4968,7 +5167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4985,7 +5184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5002,7 +5201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5011,7 +5210,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5020,7 +5219,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5029,7 +5228,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5038,7 +5237,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5047,7 +5246,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5056,7 +5255,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5065,7 +5264,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5074,7 +5273,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5083,7 +5282,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5092,7 +5291,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5101,7 +5300,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5133,28 +5332,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F766830-04C4-499B-8B97-181CE7467FE7}">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -5162,7 +5371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -5175,14 +5384,17 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>168</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -5195,12 +5407,15 @@
       <c r="D5" s="22">
         <v>14</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="22">
+        <v>6</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -5213,12 +5428,17 @@
       <c r="D6" s="22">
         <v>11</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
       <c r="F6" s="22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="G6" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -5231,12 +5451,15 @@
       <c r="D7" s="22">
         <v>12</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="22">
+        <v>8</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -5246,11 +5469,12 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="22">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -5264,11 +5488,12 @@
         <v>11</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
         <v>28.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5281,12 +5506,15 @@
       <c r="D10" s="22">
         <v>11</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="22">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -5295,8 +5523,9 @@
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -5309,9 +5538,14 @@
       <c r="D12" s="22">
         <v>59</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="22">
+        <v>20</v>
+      </c>
       <c r="F12" s="22">
-        <v>142</v>
+        <v>11</v>
+      </c>
+      <c r="G12" s="22">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5327,12 +5561,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5343,7 +5577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5354,7 +5588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5365,7 +5599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5376,7 +5610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC131F4-8C82-4EA8-A258-A8F1F67FC6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BCAFC1-D863-2144-B700-1DB6B14B8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="236">
   <si>
     <t>#</t>
   </si>
@@ -735,13 +735,16 @@
     <t>Export to CSV has to be refactored</t>
   </si>
   <si>
-    <t xml:space="preserve"> Refactor CSV export</t>
-  </si>
-  <si>
     <t>Preset for excelsheets with same names</t>
   </si>
   <si>
     <t>Making DataObjects resuable and multiable DataObjects for each link</t>
+  </si>
+  <si>
+    <t>Refactor CSV export</t>
+  </si>
+  <si>
+    <t>Database form in the UI</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,6 +1030,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1417,7 +1423,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44372.934331365737" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="79" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44374.002869097225" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="79" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle2"/>
   </cacheSource>
@@ -2131,8 +2137,8 @@
     <s v="Ersan Ünsal"/>
     <n v="4"/>
     <n v="4"/>
-    <x v="3"/>
-    <m/>
+    <x v="4"/>
+    <n v="6"/>
   </r>
   <r>
     <s v="38.2"/>
@@ -2142,8 +2148,8 @@
     <s v="Edgar Meilinger"/>
     <n v="4"/>
     <n v="4"/>
-    <x v="3"/>
-    <m/>
+    <x v="4"/>
+    <n v="5"/>
   </r>
   <r>
     <s v="38.3"/>
@@ -2169,7 +2175,7 @@
   </r>
   <r>
     <s v="38.5"/>
-    <s v=" Refactor CSV export"/>
+    <s v="Refactor CSV export"/>
     <s v="Export to CSV has to be refactored"/>
     <x v="3"/>
     <s v="Karsten Rudolf"/>
@@ -2285,7 +2291,7 @@
     <s v="Jan Leonardi"/>
     <n v="4"/>
     <n v="4"/>
-    <x v="3"/>
+    <x v="4"/>
     <n v="4"/>
   </r>
   <r>
@@ -2296,7 +2302,7 @@
     <s v="Karsten Rudolf"/>
     <n v="4"/>
     <n v="4"/>
-    <x v="3"/>
+    <x v="4"/>
     <n v="4"/>
   </r>
   <r>
@@ -2307,19 +2313,19 @@
     <s v="Ersan Ünsal"/>
     <n v="4"/>
     <n v="3"/>
-    <x v="3"/>
+    <x v="4"/>
     <n v="3"/>
   </r>
   <r>
     <n v="45"/>
+    <s v="Database form in the UI"/>
     <s v="Database Credentials are accessable in the application"/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
+    <x v="2"/>
+    <s v="Jan Leonardi"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="4"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="46"/>
@@ -2347,7 +2353,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -2774,25 +2780,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="C48" zoomScale="133" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="97.7109375" customWidth="1"/>
+    <col min="3" max="3" width="97.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
@@ -2807,7 +2813,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3039,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3445,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3619,7 +3625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -3823,7 +3829,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -3853,7 +3859,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -3883,7 +3889,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -3913,7 +3919,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -3931,7 +3937,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -4018,7 +4024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -4122,7 +4128,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4197,7 +4203,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4388,7 +4394,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4475,12 +4481,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="24">
         <v>38</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="15"/>
@@ -4490,11 +4496,11 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="36" t="s">
         <v>219</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -4512,14 +4518,18 @@
       <c r="G63" s="14">
         <v>4</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="13">
+        <v>4</v>
+      </c>
+      <c r="I63" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="36" t="s">
         <v>222</v>
       </c>
       <c r="C64" s="12" t="s">
@@ -4537,14 +4547,18 @@
       <c r="G64" s="14">
         <v>4</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="14"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="13">
+        <v>4</v>
+      </c>
+      <c r="I64" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="36" t="s">
         <v>224</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -4565,11 +4579,11 @@
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="36" t="s">
         <v>228</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -4590,12 +4604,12 @@
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>232</v>
+      <c r="B67" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>231</v>
@@ -4615,7 +4629,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="24">
         <v>39</v>
       </c>
@@ -4644,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="24">
         <v>40</v>
       </c>
@@ -4659,7 +4673,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>192</v>
       </c>
@@ -4688,7 +4702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
         <v>195</v>
       </c>
@@ -4713,7 +4727,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
         <v>197</v>
       </c>
@@ -4742,7 +4756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="24">
         <v>41</v>
       </c>
@@ -4771,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="24">
         <v>42</v>
       </c>
@@ -4786,7 +4800,7 @@
       <c r="H74" s="15"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
         <v>203</v>
       </c>
@@ -4811,7 +4825,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
         <v>206</v>
       </c>
@@ -4840,7 +4854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="24">
         <v>43</v>
       </c>
@@ -4862,12 +4876,14 @@
       <c r="G77" s="16">
         <v>4</v>
       </c>
-      <c r="H77" s="15"/>
+      <c r="H77" s="15">
+        <v>4</v>
+      </c>
       <c r="I77" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>43</v>
       </c>
@@ -4889,12 +4905,14 @@
       <c r="G78" s="16">
         <v>4</v>
       </c>
-      <c r="H78" s="15"/>
+      <c r="H78" s="15">
+        <v>4</v>
+      </c>
       <c r="I78" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>44</v>
       </c>
@@ -4916,27 +4934,43 @@
       <c r="G79" s="16">
         <v>3</v>
       </c>
-      <c r="H79" s="15"/>
+      <c r="H79" s="15">
+        <v>4</v>
+      </c>
       <c r="I79" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>45</v>
       </c>
       <c r="B80" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="16"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="25">
+        <v>4</v>
+      </c>
+      <c r="G80" s="16">
+        <v>4</v>
+      </c>
+      <c r="H80" s="15">
+        <v>4</v>
+      </c>
+      <c r="I80" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>46</v>
       </c>
@@ -4944,7 +4978,7 @@
         <v>216</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>36</v>
@@ -4965,7 +4999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="24">
         <v>48</v>
       </c>
@@ -5024,14 +5058,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5048,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5065,7 +5099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5082,7 +5116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5099,7 +5133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5116,7 +5150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5133,7 +5167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5150,7 +5184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5167,7 +5201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5184,7 +5218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5201,7 +5235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5210,7 +5244,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5219,7 +5253,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5228,7 +5262,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5237,7 +5271,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5246,7 +5280,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5255,7 +5289,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5264,7 +5298,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5273,7 +5307,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5282,7 +5316,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5291,7 +5325,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5300,7 +5334,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5335,35 +5369,35 @@
   <dimension ref="A3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -5371,7 +5405,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -5394,7 +5428,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -5415,7 +5449,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -5429,16 +5463,14 @@
         <v>11</v>
       </c>
       <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -5452,14 +5484,14 @@
         <v>12</v>
       </c>
       <c r="E7" s="22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -5474,7 +5506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -5487,13 +5519,15 @@
       <c r="D9" s="22">
         <v>11</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="22">
+        <v>11</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5514,7 +5548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -5525,7 +5559,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -5539,13 +5573,11 @@
         <v>59</v>
       </c>
       <c r="E12" s="22">
-        <v>20</v>
-      </c>
-      <c r="F12" s="22">
-        <v>11</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="22">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5561,12 +5593,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5577,7 +5609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5588,7 +5620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5599,7 +5631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5610,7 +5642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BCAFC1-D863-2144-B700-1DB6B14B8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649D295-0803-4FB8-82D7-4F999C334FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="20" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="241">
   <si>
     <t>#</t>
   </si>
@@ -745,6 +745,21 @@
   </si>
   <si>
     <t>Database form in the UI</t>
+  </si>
+  <si>
+    <t>Finding a way to implement our own Data Inspector</t>
+  </si>
+  <si>
+    <t>Research for creating own Data Inspector</t>
+  </si>
+  <si>
+    <t>40.3.1</t>
+  </si>
+  <si>
+    <t>40.4</t>
+  </si>
+  <si>
+    <t>Editing design for our own Data Inspector</t>
   </si>
 </sst>
 </file>
@@ -1027,12 +1042,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1423,7 +1438,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44374.002869097225" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="79" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44374.807942708336" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="81" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle2"/>
   </cacheSource>
@@ -1479,7 +1494,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="79">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="81">
   <r>
     <n v="1"/>
     <s v="Creating a Discord Server for the Group"/>
@@ -2219,17 +2234,39 @@
   </r>
   <r>
     <s v="40.2"/>
+    <s v="Research for creating own Data Inspector"/>
+    <s v="Finding a way to implement our own Data Inspector"/>
+    <x v="0"/>
+    <s v="Ersan Ünsal"/>
+    <n v="4"/>
+    <n v="2"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="40.3"/>
     <s v="Creating our own window and replacing inspector for Data Objects"/>
     <s v="Making the UI more User friendly"/>
     <x v="0"/>
     <s v="Jan Leonardi"/>
     <n v="4"/>
     <n v="3"/>
-    <x v="3"/>
-    <m/>
-  </r>
-  <r>
-    <s v="40.3"/>
+    <x v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="40.3.1"/>
+    <s v="Editing design for our own Data Inspector"/>
+    <s v="Making the UI more User friendly"/>
+    <x v="0"/>
+    <s v="Ersan Ünsal"/>
+    <n v="4"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="40.4"/>
     <s v="Greeting Screen"/>
     <s v="Options to select Diagrams from the database (as a list), creating a new diagram or import diagram from Excel/csv"/>
     <x v="2"/>
@@ -2353,7 +2390,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -2454,8 +2491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I82" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I82" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I84" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I84" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2778,42 +2815,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" zoomScale="133" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="133" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="97.6640625" customWidth="1"/>
+    <col min="3" max="3" width="97.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="33" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2871,7 +2908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2900,7 +2937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2929,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2958,7 +2995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2987,7 +3024,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3016,7 +3053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3045,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3074,7 +3111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3103,7 +3140,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3132,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3161,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3190,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3219,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3248,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3277,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3306,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3335,7 +3372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3364,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3393,7 +3430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3422,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3451,7 +3488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3480,7 +3517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3509,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3538,7 +3575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3567,7 +3604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3596,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3625,7 +3662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3654,7 +3691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3683,7 +3720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3712,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3741,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3770,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3799,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -3829,7 +3866,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -3859,7 +3896,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -3889,7 +3926,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -3919,7 +3956,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -3937,7 +3974,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -3966,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -3995,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -4024,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -4053,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -4082,7 +4119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -4111,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -4128,7 +4165,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -4157,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -4186,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4203,7 +4240,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4232,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4261,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4290,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4319,7 +4356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4348,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4377,7 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4394,7 +4431,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4423,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4452,7 +4489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4481,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4496,11 +4533,11 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="33" t="s">
         <v>219</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -4525,11 +4562,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="33" t="s">
         <v>222</v>
       </c>
       <c r="C64" s="12" t="s">
@@ -4554,11 +4591,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="33" t="s">
         <v>224</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -4579,11 +4616,11 @@
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="33" t="s">
         <v>228</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -4604,11 +4641,11 @@
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="33" t="s">
         <v>234</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -4629,7 +4666,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>39</v>
       </c>
@@ -4658,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>40</v>
       </c>
@@ -4673,7 +4710,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>192</v>
       </c>
@@ -4702,116 +4739,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="15" t="s">
+      <c r="B71" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="25">
-        <v>4</v>
-      </c>
-      <c r="G71" s="16">
-        <v>3</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="16"/>
-    </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="E71" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="20">
+        <v>4</v>
+      </c>
+      <c r="G71" s="14">
+        <v>2</v>
+      </c>
+      <c r="H71" s="13">
+        <v>4</v>
+      </c>
+      <c r="I71" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>197</v>
       </c>
       <c r="B72" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="25">
+        <v>4</v>
+      </c>
+      <c r="G72" s="16">
+        <v>3</v>
+      </c>
+      <c r="H72" s="15">
+        <v>4</v>
+      </c>
+      <c r="I72" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="20">
+        <v>4</v>
+      </c>
+      <c r="G73" s="14">
+        <v>1</v>
+      </c>
+      <c r="H73" s="13">
+        <v>4</v>
+      </c>
+      <c r="I73" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D74" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E74" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="25">
-        <v>4</v>
-      </c>
-      <c r="G72" s="16">
-        <v>3</v>
-      </c>
-      <c r="H72" s="15">
-        <v>4</v>
-      </c>
-      <c r="I72" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="24">
+      <c r="F74" s="25">
+        <v>4</v>
+      </c>
+      <c r="G74" s="16">
+        <v>3</v>
+      </c>
+      <c r="H74" s="15">
+        <v>4</v>
+      </c>
+      <c r="I74" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
         <v>41</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B75" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D75" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" s="25">
-        <v>4</v>
-      </c>
-      <c r="G73" s="16">
-        <v>5</v>
-      </c>
-      <c r="H73" s="15">
-        <v>4</v>
-      </c>
-      <c r="I73" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="24">
-        <v>42</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="16"/>
-    </row>
-    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>28</v>
@@ -4820,209 +4875,253 @@
         <v>4</v>
       </c>
       <c r="G75" s="16">
-        <v>4</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="15">
+        <v>4</v>
+      </c>
+      <c r="I75" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
+        <v>42</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="25">
+        <v>4</v>
+      </c>
+      <c r="G77" s="16">
+        <v>4</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B78" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D78" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E78" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="25">
-        <v>4</v>
-      </c>
-      <c r="G76" s="16">
-        <v>4</v>
-      </c>
-      <c r="H76" s="15">
-        <v>4</v>
-      </c>
-      <c r="I76" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="24">
+      <c r="F78" s="25">
+        <v>4</v>
+      </c>
+      <c r="G78" s="16">
+        <v>4</v>
+      </c>
+      <c r="H78" s="15">
+        <v>4</v>
+      </c>
+      <c r="I78" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
         <v>43</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B79" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C79" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="25">
-        <v>4</v>
-      </c>
-      <c r="G77" s="16">
-        <v>4</v>
-      </c>
-      <c r="H77" s="15">
-        <v>4</v>
-      </c>
-      <c r="I77" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="24">
-        <v>43</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="25">
-        <v>4</v>
-      </c>
-      <c r="G78" s="16">
-        <v>4</v>
-      </c>
-      <c r="H78" s="15">
-        <v>4</v>
-      </c>
-      <c r="I78" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="24">
-        <v>44</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="25">
+        <v>4</v>
+      </c>
+      <c r="G79" s="16">
+        <v>4</v>
+      </c>
+      <c r="H79" s="15">
+        <v>4</v>
+      </c>
+      <c r="I79" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="24">
+        <v>43</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="25">
+        <v>4</v>
+      </c>
+      <c r="G80" s="16">
+        <v>4</v>
+      </c>
+      <c r="H80" s="15">
+        <v>4</v>
+      </c>
+      <c r="I80" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="24">
+        <v>44</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="25">
-        <v>4</v>
-      </c>
-      <c r="G79" s="16">
-        <v>3</v>
-      </c>
-      <c r="H79" s="15">
-        <v>4</v>
-      </c>
-      <c r="I79" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="24">
+      <c r="F81" s="25">
+        <v>4</v>
+      </c>
+      <c r="G81" s="16">
+        <v>3</v>
+      </c>
+      <c r="H81" s="15">
+        <v>4</v>
+      </c>
+      <c r="I81" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="24">
         <v>45</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B82" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C82" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D82" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E82" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="25">
-        <v>4</v>
-      </c>
-      <c r="G80" s="16">
-        <v>4</v>
-      </c>
-      <c r="H80" s="15">
-        <v>4</v>
-      </c>
-      <c r="I80" s="16">
+      <c r="F82" s="25">
+        <v>4</v>
+      </c>
+      <c r="G82" s="16">
+        <v>4</v>
+      </c>
+      <c r="H82" s="15">
+        <v>4</v>
+      </c>
+      <c r="I82" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="24">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="24">
         <v>46</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B83" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D83" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E83" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="25">
-        <v>4</v>
-      </c>
-      <c r="G81" s="16">
-        <v>3</v>
-      </c>
-      <c r="H81" s="15">
-        <v>4</v>
-      </c>
-      <c r="I81" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="24">
-        <v>48</v>
-      </c>
-      <c r="B82" s="23" t="s">
+      <c r="F83" s="25">
+        <v>4</v>
+      </c>
+      <c r="G83" s="16">
+        <v>3</v>
+      </c>
+      <c r="H83" s="15">
+        <v>4</v>
+      </c>
+      <c r="I83" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="24">
+        <v>47</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D84" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E84" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="25">
-        <v>4</v>
-      </c>
-      <c r="G82" s="16">
+      <c r="F84" s="25">
+        <v>4</v>
+      </c>
+      <c r="G84" s="16">
         <v>5</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="16"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5058,14 +5157,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.83203125" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5099,7 +5198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5116,7 +5215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5133,7 +5232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5150,7 +5249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5167,7 +5266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5184,7 +5283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5201,7 +5300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5218,7 +5317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5235,7 +5334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5244,7 +5343,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5253,7 +5352,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5262,7 +5361,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5271,7 +5370,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5280,7 +5379,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5289,7 +5388,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5298,7 +5397,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5307,7 +5406,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5316,7 +5415,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5325,7 +5424,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5334,7 +5433,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5372,32 +5471,32 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -5405,7 +5504,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -5428,7 +5527,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -5449,7 +5548,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -5470,7 +5569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -5491,7 +5590,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -5506,7 +5605,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -5527,7 +5626,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5541,14 +5640,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -5559,7 +5658,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -5573,11 +5672,11 @@
         <v>59</v>
       </c>
       <c r="E12" s="22">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5593,12 +5692,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5609,7 +5708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5620,7 +5719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5631,7 +5730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5642,7 +5741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649D295-0803-4FB8-82D7-4F999C334FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7358F7-F50D-4C89-8ABA-306EE6EE05A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-4290" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2390,7 +2390,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -2817,25 +2817,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="133" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="D59" zoomScale="133" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="97.7109375" customWidth="1"/>
+    <col min="3" max="3" width="97.7265625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -4165,7 +4165,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>218</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>221</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>223</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>230</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="24">
         <v>39</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="24">
         <v>40</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>192</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>195</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="s">
         <v>197</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>238</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>239</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="24">
         <v>41</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="24">
         <v>42</v>
       </c>
@@ -4899,7 +4899,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="24" t="s">
         <v>203</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="24" t="s">
         <v>206</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="24">
         <v>43</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="24">
         <v>43</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="24">
         <v>44</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="24">
         <v>45</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="24">
         <v>46</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="24">
         <v>47</v>
       </c>
@@ -5120,8 +5120,12 @@
       <c r="G84" s="16">
         <v>5</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="16"/>
+      <c r="H84" s="15">
+        <v>4</v>
+      </c>
+      <c r="I84" s="16">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5157,14 +5161,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5300,7 +5304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5343,7 +5347,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5352,7 +5356,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5361,7 +5365,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5370,7 +5374,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5379,7 +5383,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5388,7 +5392,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5397,7 +5401,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5406,7 +5410,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5415,7 +5419,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5424,7 +5428,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5433,7 +5437,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5471,32 +5475,32 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -5527,7 +5531,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -5626,7 +5630,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -5658,7 +5662,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -5692,12 +5696,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5708,7 +5712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5719,7 +5723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7358F7-F50D-4C89-8ABA-306EE6EE05A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10FBAC-FB19-4A5A-BC44-4346F6C1377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-4290" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="289">
   <si>
     <t>#</t>
   </si>
@@ -760,6 +760,150 @@
   </si>
   <si>
     <t>Editing design for our own Data Inspector</t>
+  </si>
+  <si>
+    <t>Easier to understand for the customer (button names etc.)</t>
+  </si>
+  <si>
+    <t>Data Objects should only be able to edit due edit function on manage objects sidebar</t>
+  </si>
+  <si>
+    <t>Window should scale with text sizes</t>
+  </si>
+  <si>
+    <t>Editing the inspector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaleable window </t>
+  </si>
+  <si>
+    <t>Exclude save changes button</t>
+  </si>
+  <si>
+    <t>Filling the empty space on the sides</t>
+  </si>
+  <si>
+    <t>49.1</t>
+  </si>
+  <si>
+    <t>49.2</t>
+  </si>
+  <si>
+    <t>49.3</t>
+  </si>
+  <si>
+    <t>Making error messages for important functions</t>
+  </si>
+  <si>
+    <t>49.4</t>
+  </si>
+  <si>
+    <t>Editing design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixing edit function for Data Objects </t>
+  </si>
+  <si>
+    <t>Saving schema in Database for excel sheets for import function</t>
+  </si>
+  <si>
+    <t>Making the UI more consistent for all data object functions</t>
+  </si>
+  <si>
+    <t>Making the UI more consistent for greeting screen</t>
+  </si>
+  <si>
+    <t>Fixing arrowheads</t>
+  </si>
+  <si>
+    <t>Fixing design of arrowheads</t>
+  </si>
+  <si>
+    <t>User gets information if something doesn't work</t>
+  </si>
+  <si>
+    <t>User doesn't have to fill schema in every time he starts the program</t>
+  </si>
+  <si>
+    <t>Making UI more user friendly</t>
+  </si>
+  <si>
+    <t>Not wasting space of our window</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>55.1</t>
+  </si>
+  <si>
+    <t>55.2</t>
+  </si>
+  <si>
+    <t>55.3</t>
+  </si>
+  <si>
+    <t>55.4</t>
+  </si>
+  <si>
+    <t>55.5</t>
+  </si>
+  <si>
+    <t>56.1</t>
+  </si>
+  <si>
+    <t>56.2</t>
+  </si>
+  <si>
+    <t>56.3</t>
+  </si>
+  <si>
+    <t>56.4</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>Fixing Bugs 1</t>
+  </si>
+  <si>
+    <t>Fixing Bugs 2</t>
+  </si>
+  <si>
+    <t>Fixing Bugs 3</t>
+  </si>
+  <si>
+    <t>Fixing Bugs 4</t>
+  </si>
+  <si>
+    <t>Fixing Bugs 5</t>
+  </si>
+  <si>
+    <t>Each group member will be assigned to fix reported bugs</t>
+  </si>
+  <si>
+    <t>Test 1 + documenting bugs</t>
+  </si>
+  <si>
+    <t>Teammeeting to discuss documented bugs</t>
+  </si>
+  <si>
+    <t>Test 2 + documenting bugs</t>
+  </si>
+  <si>
+    <t>Test 3 + documenting bugs</t>
+  </si>
+  <si>
+    <t>Test 4 + documenting bugs</t>
+  </si>
+  <si>
+    <t>Test 5 + documenting bugs</t>
+  </si>
+  <si>
+    <t>Each group member tests the whole program and it's function after the program is finished and documents bugs</t>
+  </si>
+  <si>
+    <t>Each group reports documented bugs at this meeting</t>
   </si>
 </sst>
 </file>
@@ -2491,8 +2635,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I84" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I84" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I107" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I107" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2815,27 +2959,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D59" zoomScale="133" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="97.7265625" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
@@ -2850,7 +2994,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +3023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2908,7 +3052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2937,7 +3081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2966,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2995,7 +3139,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -3024,7 +3168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3053,7 +3197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3082,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3111,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3140,7 +3284,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3169,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3198,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3227,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3256,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3285,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3314,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3343,7 +3487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3372,7 +3516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3401,7 +3545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3430,7 +3574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3459,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3488,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3517,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3546,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3575,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3604,7 +3748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3633,7 +3777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3662,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3691,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3720,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3749,7 +3893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3778,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3807,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3836,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -3866,7 +4010,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -3896,7 +4040,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -3926,7 +4070,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -3956,7 +4100,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -3974,7 +4118,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -4003,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -4032,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -4061,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -4090,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -4119,7 +4263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -4148,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -4165,7 +4309,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -4194,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -4223,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4240,7 +4384,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4269,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4298,7 +4442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4327,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4356,7 +4500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4385,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4414,7 +4558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4431,7 +4575,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4460,7 +4604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4489,7 +4633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4518,7 +4662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4533,7 +4677,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>218</v>
       </c>
@@ -4562,7 +4706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>221</v>
       </c>
@@ -4591,7 +4735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>223</v>
       </c>
@@ -4616,7 +4760,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
@@ -4641,7 +4785,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>230</v>
       </c>
@@ -4666,7 +4810,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>39</v>
       </c>
@@ -4695,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>40</v>
       </c>
@@ -4710,7 +4854,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>192</v>
       </c>
@@ -4739,7 +4883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>195</v>
       </c>
@@ -4768,7 +4912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>197</v>
       </c>
@@ -4797,7 +4941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>238</v>
       </c>
@@ -4826,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>239</v>
       </c>
@@ -4855,7 +4999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>41</v>
       </c>
@@ -4884,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>42</v>
       </c>
@@ -4899,7 +5043,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>203</v>
       </c>
@@ -4924,7 +5068,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>206</v>
       </c>
@@ -4953,7 +5097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>43</v>
       </c>
@@ -4982,7 +5126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>43</v>
       </c>
@@ -5011,7 +5155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>44</v>
       </c>
@@ -5040,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45</v>
       </c>
@@ -5069,7 +5213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>46</v>
       </c>
@@ -5098,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>47</v>
       </c>
@@ -5126,6 +5270,543 @@
       <c r="I84" s="16">
         <v>4</v>
       </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
+        <v>48</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="25">
+        <v>5</v>
+      </c>
+      <c r="G85" s="16">
+        <v>4</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>49</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="25">
+        <v>5</v>
+      </c>
+      <c r="G87" s="16">
+        <v>3</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="16"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="25">
+        <v>5</v>
+      </c>
+      <c r="G88" s="16">
+        <v>2</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="16"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="25">
+        <v>5</v>
+      </c>
+      <c r="G89" s="16">
+        <v>2</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="16"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="25">
+        <v>5</v>
+      </c>
+      <c r="G90" s="14">
+        <v>4</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="24">
+        <v>50</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="25">
+        <v>5</v>
+      </c>
+      <c r="G91" s="16">
+        <v>2</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="16"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="24">
+        <v>51</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="25">
+        <v>5</v>
+      </c>
+      <c r="G92" s="16">
+        <v>3</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="24">
+        <v>52</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="25">
+        <v>5</v>
+      </c>
+      <c r="G93" s="16">
+        <v>1</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="24">
+        <v>53</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="25">
+        <v>5</v>
+      </c>
+      <c r="G94" s="16">
+        <v>3</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="24">
+        <v>54</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="25">
+        <v>5</v>
+      </c>
+      <c r="G95" s="16">
+        <v>3</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="24">
+        <v>55</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="25">
+        <v>5</v>
+      </c>
+      <c r="G97" s="16">
+        <v>4</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="25">
+        <v>5</v>
+      </c>
+      <c r="G98" s="16">
+        <v>4</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="25">
+        <v>5</v>
+      </c>
+      <c r="G99" s="16">
+        <v>4</v>
+      </c>
+      <c r="H99" s="13"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="25">
+        <v>5</v>
+      </c>
+      <c r="G100" s="16">
+        <v>4</v>
+      </c>
+      <c r="H100" s="13"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="25">
+        <v>5</v>
+      </c>
+      <c r="G101" s="16">
+        <v>4</v>
+      </c>
+      <c r="H101" s="13"/>
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="24">
+        <v>56</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="25">
+        <v>5</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="25">
+        <v>5</v>
+      </c>
+      <c r="G104" s="16"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="25">
+        <v>5</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="14"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="25">
+        <v>5</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="25">
+        <v>5</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5161,14 +5842,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5185,7 +5866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5202,7 +5883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5219,7 +5900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5236,7 +5917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5253,7 +5934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5270,7 +5951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5287,7 +5968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5304,7 +5985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5321,7 +6002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5338,7 +6019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5347,7 +6028,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5356,7 +6037,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5365,7 +6046,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5374,7 +6055,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5383,7 +6064,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5392,7 +6073,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5401,7 +6082,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5410,7 +6091,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5419,7 +6100,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5428,7 +6109,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5437,7 +6118,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5475,32 +6156,32 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -5508,7 +6189,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -5531,7 +6212,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -5552,7 +6233,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -5573,7 +6254,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -5594,7 +6275,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -5609,7 +6290,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -5630,7 +6311,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5651,7 +6332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -5662,7 +6343,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -5696,12 +6377,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5712,7 +6393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5723,7 +6404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5734,7 +6415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5745,7 +6426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10FBAC-FB19-4A5A-BC44-4346F6C1377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817AD560-F670-4A71-9BD6-D626F2B33063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -2961,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="D74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5433,8 +5433,12 @@
       <c r="G91" s="16">
         <v>2</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="16"/>
+      <c r="H91" s="15">
+        <v>5</v>
+      </c>
+      <c r="I91" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="24">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10FBAC-FB19-4A5A-BC44-4346F6C1377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4573C98-D20A-4D21-A31F-11E9552FBE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-4290" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -2961,25 +2961,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="C74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" customWidth="1"/>
+    <col min="3" max="3" width="100.26953125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>218</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>221</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>223</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>230</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="24">
         <v>39</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="24">
         <v>40</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>192</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>195</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="s">
         <v>197</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>238</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>239</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="24">
         <v>41</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="24">
         <v>42</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="24" t="s">
         <v>203</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="24" t="s">
         <v>206</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="24">
         <v>43</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="24">
         <v>43</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="24">
         <v>44</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="24">
         <v>45</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="24">
         <v>46</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="24">
         <v>47</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="24">
         <v>48</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="H85" s="15"/>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>49</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="H86" s="13"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="24" t="s">
         <v>248</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="H87" s="15"/>
       <c r="I87" s="16"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="24" t="s">
         <v>249</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="24" t="s">
         <v>250</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="H89" s="15"/>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>252</v>
       </c>
@@ -5411,7 +5411,7 @@
       <c r="H90" s="13"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="24">
         <v>50</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="H91" s="15"/>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="24">
         <v>51</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="H92" s="15"/>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="24">
         <v>52</v>
       </c>
@@ -5486,7 +5486,7 @@
       <c r="H93" s="15"/>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="24">
         <v>53</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="24">
         <v>54</v>
       </c>
@@ -5533,10 +5533,14 @@
       <c r="G95" s="16">
         <v>3</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="16"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="15">
+        <v>5</v>
+      </c>
+      <c r="I95" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="24">
         <v>55</v>
       </c>
@@ -5551,7 +5555,7 @@
       <c r="H96" s="15"/>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="24" t="s">
         <v>265</v>
       </c>
@@ -5576,7 +5580,7 @@
       <c r="H97" s="15"/>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="24" t="s">
         <v>266</v>
       </c>
@@ -5601,7 +5605,7 @@
       <c r="H98" s="15"/>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="24" t="s">
         <v>267</v>
       </c>
@@ -5626,7 +5630,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="24" t="s">
         <v>268</v>
       </c>
@@ -5651,7 +5655,7 @@
       <c r="H100" s="13"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="s">
         <v>269</v>
       </c>
@@ -5676,7 +5680,7 @@
       <c r="H101" s="13"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="24">
         <v>56</v>
       </c>
@@ -5693,7 +5697,7 @@
       <c r="H102" s="15"/>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="24" t="s">
         <v>270</v>
       </c>
@@ -5716,7 +5720,7 @@
       <c r="H103" s="15"/>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="24" t="s">
         <v>271</v>
       </c>
@@ -5739,7 +5743,7 @@
       <c r="H104" s="15"/>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="24" t="s">
         <v>272</v>
       </c>
@@ -5762,7 +5766,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="24" t="s">
         <v>273</v>
       </c>
@@ -5785,7 +5789,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="24" t="s">
         <v>274</v>
       </c>
@@ -5842,14 +5846,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5883,7 +5887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5934,7 +5938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6028,7 +6032,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6037,7 +6041,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6046,7 +6050,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6055,7 +6059,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6064,7 +6068,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6073,7 +6077,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6082,7 +6086,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6091,7 +6095,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6100,7 +6104,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6109,7 +6113,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6118,7 +6122,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -6156,32 +6160,32 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -6212,7 +6216,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -6233,7 +6237,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -6290,7 +6294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -6332,7 +6336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -6343,7 +6347,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -6377,12 +6381,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4573C98-D20A-4D21-A31F-11E9552FBE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456F9D0-C493-4265-9229-58884925376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-4290" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="292">
   <si>
     <t>#</t>
   </si>
@@ -904,6 +904,15 @@
   </si>
   <si>
     <t>Each group reports documented bugs at this meeting</t>
+  </si>
+  <si>
+    <t>38.6</t>
+  </si>
+  <si>
+    <t>Function to Connect DataObjects with Links</t>
+  </si>
+  <si>
+    <t>DataObjects are now selectable for each Link</t>
   </si>
 </sst>
 </file>
@@ -2635,8 +2644,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I107" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I107" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I108" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I108" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2959,27 +2968,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="100.26953125" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
@@ -2994,7 +3003,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -3052,7 +3061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3197,7 +3206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3226,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3284,7 +3293,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3400,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3429,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3458,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3487,7 +3496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3516,7 +3525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3661,7 +3670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3690,7 +3699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3748,7 +3757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3835,7 +3844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3864,7 +3873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3893,7 +3902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3980,7 +3989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -4010,7 +4019,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -4040,7 +4049,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -4070,7 +4079,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -4100,7 +4109,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -4118,7 +4127,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -4147,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -4176,7 +4185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -4205,7 +4214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -4234,7 +4243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -4263,7 +4272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>186</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -4309,7 +4318,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -4338,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -4367,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4384,7 +4393,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4413,7 +4422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4442,7 +4451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4471,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4500,7 +4509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4529,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4575,7 +4584,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>137</v>
       </c>
@@ -4604,7 +4613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>138</v>
       </c>
@@ -4633,7 +4642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>139</v>
       </c>
@@ -4662,7 +4671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4677,7 +4686,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>218</v>
       </c>
@@ -4706,7 +4715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>221</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>223</v>
       </c>
@@ -4760,7 +4769,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
@@ -4785,18 +4794,18 @@
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>230</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>24</v>
@@ -4805,278 +4814,282 @@
         <v>5</v>
       </c>
       <c r="G67" s="14">
+        <v>8</v>
+      </c>
+      <c r="H67" s="13">
         <v>5</v>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="24">
+      <c r="I67" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="20">
+        <v>5</v>
+      </c>
+      <c r="G68" s="14">
+        <v>5</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="24">
         <v>39</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B69" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D69" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E69" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="25">
-        <v>4</v>
-      </c>
-      <c r="G68" s="16">
+      <c r="F69" s="25">
+        <v>4</v>
+      </c>
+      <c r="G69" s="16">
         <v>1</v>
       </c>
-      <c r="H68" s="15">
-        <v>4</v>
-      </c>
-      <c r="I68" s="16">
+      <c r="H69" s="15">
+        <v>4</v>
+      </c>
+      <c r="I69" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="24">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="24">
         <v>40</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B70" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="16"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="24" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B71" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D71" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E71" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F70" s="25">
-        <v>4</v>
-      </c>
-      <c r="G70" s="16">
-        <v>4</v>
-      </c>
-      <c r="H70" s="15">
-        <v>4</v>
-      </c>
-      <c r="I70" s="16">
+      <c r="F71" s="25">
+        <v>4</v>
+      </c>
+      <c r="G71" s="16">
+        <v>4</v>
+      </c>
+      <c r="H71" s="15">
+        <v>4</v>
+      </c>
+      <c r="I71" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="11" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B72" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E72" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="20">
-        <v>4</v>
-      </c>
-      <c r="G71" s="14">
-        <v>2</v>
-      </c>
-      <c r="H71" s="13">
-        <v>4</v>
-      </c>
-      <c r="I71" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="24" t="s">
+      <c r="F72" s="20">
+        <v>4</v>
+      </c>
+      <c r="G72" s="14">
+        <v>2</v>
+      </c>
+      <c r="H72" s="13">
+        <v>4</v>
+      </c>
+      <c r="I72" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B73" s="32" t="s">
         <v>196</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" s="25">
-        <v>4</v>
-      </c>
-      <c r="G72" s="16">
-        <v>3</v>
-      </c>
-      <c r="H72" s="15">
-        <v>4</v>
-      </c>
-      <c r="I72" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>240</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="25">
+        <v>4</v>
+      </c>
+      <c r="G73" s="16">
+        <v>3</v>
+      </c>
+      <c r="H73" s="15">
+        <v>4</v>
+      </c>
+      <c r="I73" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="20">
-        <v>4</v>
-      </c>
-      <c r="G73" s="14">
+      <c r="F74" s="20">
+        <v>4</v>
+      </c>
+      <c r="G74" s="14">
         <v>1</v>
       </c>
-      <c r="H73" s="13">
-        <v>4</v>
-      </c>
-      <c r="I73" s="14">
+      <c r="H74" s="13">
+        <v>4</v>
+      </c>
+      <c r="I74" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="24" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B75" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" s="25">
-        <v>4</v>
-      </c>
-      <c r="G74" s="16">
-        <v>3</v>
-      </c>
-      <c r="H74" s="15">
-        <v>4</v>
-      </c>
-      <c r="I74" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="24">
-        <v>41</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E75" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="25">
+        <v>4</v>
+      </c>
+      <c r="G75" s="16">
+        <v>3</v>
+      </c>
+      <c r="H75" s="15">
+        <v>4</v>
+      </c>
+      <c r="I75" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
+        <v>41</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="25">
-        <v>4</v>
-      </c>
-      <c r="G75" s="16">
+      <c r="F76" s="25">
+        <v>4</v>
+      </c>
+      <c r="G76" s="16">
         <v>5</v>
       </c>
-      <c r="H75" s="15">
-        <v>4</v>
-      </c>
-      <c r="I75" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="24">
+      <c r="H76" s="15">
+        <v>4</v>
+      </c>
+      <c r="I76" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="24">
         <v>42</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B77" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" s="25">
-        <v>4</v>
-      </c>
-      <c r="G77" s="16">
-        <v>4</v>
-      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="16"/>
       <c r="H77" s="15"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>36</v>
@@ -5090,29 +5103,25 @@
       <c r="G78" s="16">
         <v>4</v>
       </c>
-      <c r="H78" s="15">
-        <v>4</v>
-      </c>
-      <c r="I78" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="24">
-        <v>43</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>212</v>
+      <c r="H78" s="15"/>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="D79" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="F79" s="25">
         <v>4</v>
       </c>
@@ -5126,12 +5135,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>43</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>212</v>
@@ -5140,7 +5149,7 @@
         <v>28</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F80" s="25">
         <v>4</v>
@@ -5155,76 +5164,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="25">
+        <v>4</v>
+      </c>
+      <c r="G81" s="16">
+        <v>4</v>
+      </c>
+      <c r="H81" s="15">
+        <v>4</v>
+      </c>
+      <c r="I81" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="24">
+        <v>44</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F81" s="25">
-        <v>4</v>
-      </c>
-      <c r="G81" s="16">
-        <v>3</v>
-      </c>
-      <c r="H81" s="15">
-        <v>4</v>
-      </c>
-      <c r="I81" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="24">
+      <c r="F82" s="25">
+        <v>4</v>
+      </c>
+      <c r="G82" s="16">
+        <v>3</v>
+      </c>
+      <c r="H82" s="15">
+        <v>4</v>
+      </c>
+      <c r="I82" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="24">
         <v>45</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B83" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C83" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D83" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" s="25">
-        <v>4</v>
-      </c>
-      <c r="G82" s="16">
-        <v>4</v>
-      </c>
-      <c r="H82" s="15">
-        <v>4</v>
-      </c>
-      <c r="I82" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="24">
-        <v>46</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>34</v>
@@ -5233,118 +5242,122 @@
         <v>4</v>
       </c>
       <c r="G83" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H83" s="15">
         <v>4</v>
       </c>
       <c r="I83" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
+        <v>46</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="25">
+        <v>4</v>
+      </c>
+      <c r="G84" s="16">
+        <v>3</v>
+      </c>
+      <c r="H84" s="15">
+        <v>4</v>
+      </c>
+      <c r="I84" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
         <v>47</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B85" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D85" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E85" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F84" s="25">
-        <v>4</v>
-      </c>
-      <c r="G84" s="16">
+      <c r="F85" s="25">
+        <v>4</v>
+      </c>
+      <c r="G85" s="16">
         <v>5</v>
       </c>
-      <c r="H84" s="15">
-        <v>4</v>
-      </c>
-      <c r="I84" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="24">
+      <c r="H85" s="15">
+        <v>4</v>
+      </c>
+      <c r="I85" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="24">
         <v>48</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B86" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D86" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E86" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="25">
+      <c r="F86" s="25">
         <v>5</v>
       </c>
-      <c r="G85" s="16">
-        <v>4</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="16"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="11">
+      <c r="G86" s="16">
+        <v>4</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
         <v>49</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B87" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="14"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="24" t="s">
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B88" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F87" s="25">
-        <v>5</v>
-      </c>
-      <c r="G87" s="16">
-        <v>3</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="16"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B88" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>24</v>
@@ -5356,26 +5369,26 @@
         <v>5</v>
       </c>
       <c r="G88" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F89" s="25">
         <v>5</v>
@@ -5386,68 +5399,68 @@
       <c r="H89" s="15"/>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>262</v>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F90" s="25">
         <v>5</v>
       </c>
-      <c r="G90" s="14">
-        <v>4</v>
-      </c>
-      <c r="H90" s="13"/>
-      <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="24">
-        <v>50</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>142</v>
+      <c r="G90" s="16">
+        <v>2</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="16"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F91" s="25">
         <v>5</v>
       </c>
-      <c r="G91" s="16">
-        <v>2</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G91" s="14">
+        <v>4</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>28</v>
@@ -5456,20 +5469,20 @@
         <v>5</v>
       </c>
       <c r="G92" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>36</v>
@@ -5481,51 +5494,51 @@
         <v>5</v>
       </c>
       <c r="G93" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" s="15"/>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F94" s="25">
         <v>5</v>
       </c>
       <c r="G94" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F95" s="25">
         <v>5</v>
@@ -5533,68 +5546,68 @@
       <c r="G95" s="16">
         <v>3</v>
       </c>
-      <c r="H95" s="15">
+      <c r="H95" s="15"/>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="24">
+        <v>54</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="25">
         <v>5</v>
       </c>
-      <c r="I95" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="24">
+      <c r="G96" s="16">
+        <v>3</v>
+      </c>
+      <c r="H96" s="15">
+        <v>5</v>
+      </c>
+      <c r="I96" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="24">
         <v>55</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B97" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="16"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B97" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" s="25">
-        <v>5</v>
-      </c>
-      <c r="G97" s="16">
-        <v>4</v>
-      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="16"/>
       <c r="H97" s="15"/>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>287</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F98" s="25">
         <v>5</v>
@@ -5605,21 +5618,21 @@
       <c r="H98" s="15"/>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D99" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" s="13" t="s">
+      <c r="D99" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F99" s="25">
         <v>5</v>
@@ -5627,24 +5640,24 @@
       <c r="G99" s="16">
         <v>4</v>
       </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H99" s="15"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>287</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F100" s="25">
         <v>5</v>
@@ -5655,21 +5668,21 @@
       <c r="H100" s="13"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>287</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F101" s="25">
         <v>5</v>
@@ -5680,61 +5693,63 @@
       <c r="H101" s="13"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="24">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="25">
+        <v>5</v>
+      </c>
+      <c r="G102" s="16">
+        <v>4</v>
+      </c>
+      <c r="H102" s="13"/>
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="24">
         <v>56</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B103" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C103" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B103" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F103" s="25">
-        <v>5</v>
-      </c>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="25"/>
       <c r="G103" s="16"/>
       <c r="H103" s="15"/>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>280</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F104" s="25">
         <v>5</v>
@@ -5743,44 +5758,44 @@
       <c r="H104" s="15"/>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D105" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E105" s="13" t="s">
+      <c r="D105" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F105" s="25">
         <v>5</v>
       </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="14"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G105" s="16"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="16"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>280</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F106" s="25">
         <v>5</v>
@@ -5789,21 +5804,21 @@
       <c r="H106" s="13"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>280</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F107" s="25">
         <v>5</v>
@@ -5811,6 +5826,29 @@
       <c r="G107" s="14"/>
       <c r="H107" s="13"/>
       <c r="I107" s="14"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="25">
+        <v>5</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5846,14 +5884,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5870,7 +5908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5887,7 +5925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5904,7 +5942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5921,7 +5959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5938,7 +5976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5955,7 +5993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5972,7 +6010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5989,7 +6027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6006,7 +6044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6023,7 +6061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6032,7 +6070,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6041,7 +6079,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6050,7 +6088,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6059,7 +6097,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6068,7 +6106,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6077,7 +6115,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6086,7 +6124,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6095,7 +6133,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6104,7 +6142,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6113,7 +6151,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6122,7 +6160,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -6160,32 +6198,32 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -6193,7 +6231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -6216,7 +6254,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -6237,7 +6275,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -6258,7 +6296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -6279,7 +6317,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -6294,7 +6332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -6315,7 +6353,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -6336,7 +6374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -6347,7 +6385,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -6381,12 +6419,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -6397,7 +6435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6408,7 +6446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6419,7 +6457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6430,7 +6468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456F9D0-C493-4265-9229-58884925376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BDBF8-AFCB-4674-8CEA-721B367A3966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -2970,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99:I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5546,8 +5546,12 @@
       <c r="G95" s="16">
         <v>3</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="16"/>
+      <c r="H95" s="15">
+        <v>5</v>
+      </c>
+      <c r="I95" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="24">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BDBF8-AFCB-4674-8CEA-721B367A3966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6338697-E027-4E65-8012-372EB2A79933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="294">
   <si>
     <t>#</t>
   </si>
@@ -913,6 +913,12 @@
   </si>
   <si>
     <t>DataObjects are now selectable for each Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignoring Data Objects that are already in a Link </t>
+  </si>
+  <si>
+    <t>Function to check Data Objects in a Link</t>
   </si>
 </sst>
 </file>
@@ -2644,8 +2650,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I108" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I108" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I109" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I109" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2968,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99:I99"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,57 +5592,61 @@
       <c r="A97" s="24">
         <v>55</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="20">
+        <v>5</v>
+      </c>
+      <c r="G97" s="14">
+        <v>1</v>
+      </c>
+      <c r="H97" s="13">
+        <v>5</v>
+      </c>
+      <c r="I97" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="24">
+        <v>56</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="16"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F98" s="25">
-        <v>5</v>
-      </c>
-      <c r="G98" s="16">
-        <v>4</v>
-      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="16"/>
       <c r="H98" s="15"/>
       <c r="I98" s="16"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>287</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F99" s="25">
         <v>5</v>
@@ -5649,19 +5659,19 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D100" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="13" t="s">
+      <c r="D100" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F100" s="25">
         <v>5</v>
@@ -5669,24 +5679,24 @@
       <c r="G100" s="16">
         <v>4</v>
       </c>
-      <c r="H100" s="13"/>
-      <c r="I100" s="14"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>287</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F101" s="25">
         <v>5</v>
@@ -5699,19 +5709,19 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>287</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F102" s="25">
         <v>5</v>
@@ -5723,60 +5733,62 @@
       <c r="I102" s="14"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="24">
+      <c r="A103" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="25">
+        <v>5</v>
+      </c>
+      <c r="G103" s="16">
+        <v>4</v>
+      </c>
+      <c r="H103" s="13"/>
+      <c r="I103" s="14"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="24">
         <v>56</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B104" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C104" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F104" s="25">
-        <v>5</v>
-      </c>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="25"/>
       <c r="G104" s="16"/>
       <c r="H104" s="15"/>
       <c r="I104" s="16"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>280</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F105" s="25">
         <v>5</v>
@@ -5787,42 +5799,42 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="13" t="s">
+      <c r="D106" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F106" s="25">
         <v>5</v>
       </c>
-      <c r="G106" s="14"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="14"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>280</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F107" s="25">
         <v>5</v>
@@ -5833,19 +5845,19 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>280</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F108" s="25">
         <v>5</v>
@@ -5853,6 +5865,29 @@
       <c r="G108" s="14"/>
       <c r="H108" s="13"/>
       <c r="I108" s="14"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="25">
+        <v>5</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6338697-E027-4E65-8012-372EB2A79933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7DAF64-06BD-42A1-8B5A-267731EDD38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="296">
   <si>
     <t>#</t>
   </si>
@@ -834,36 +834,6 @@
     <t>Tests</t>
   </si>
   <si>
-    <t>55.1</t>
-  </si>
-  <si>
-    <t>55.2</t>
-  </si>
-  <si>
-    <t>55.3</t>
-  </si>
-  <si>
-    <t>55.4</t>
-  </si>
-  <si>
-    <t>55.5</t>
-  </si>
-  <si>
-    <t>56.1</t>
-  </si>
-  <si>
-    <t>56.2</t>
-  </si>
-  <si>
-    <t>56.3</t>
-  </si>
-  <si>
-    <t>56.4</t>
-  </si>
-  <si>
-    <t>56.5</t>
-  </si>
-  <si>
     <t>Fixing Bugs 1</t>
   </si>
   <si>
@@ -918,7 +888,43 @@
     <t xml:space="preserve">Ignoring Data Objects that are already in a Link </t>
   </si>
   <si>
-    <t>Function to check Data Objects in a Link</t>
+    <t>Add Function to save in database when node and link is updated</t>
+  </si>
+  <si>
+    <t>Add Function to check Data Objects in a Link</t>
+  </si>
+  <si>
+    <t>Added 2 more save events</t>
+  </si>
+  <si>
+    <t>57.1</t>
+  </si>
+  <si>
+    <t>57.2</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>57.4</t>
+  </si>
+  <si>
+    <t>57.5</t>
+  </si>
+  <si>
+    <t>58.1</t>
+  </si>
+  <si>
+    <t>58.2</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>58.4</t>
+  </si>
+  <si>
+    <t>58.5</t>
   </si>
 </sst>
 </file>
@@ -2650,8 +2656,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I109" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I109" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I110" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I110" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2974,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4805,10 +4811,10 @@
         <v>230</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>31</v>
@@ -4831,7 +4837,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B68" s="33" t="s">
         <v>234</v>
@@ -5589,20 +5595,20 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="24">
+      <c r="A97" s="11">
         <v>55</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D97" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F97" s="20">
         <v>5</v>
@@ -5621,57 +5627,61 @@
       <c r="A98" s="24">
         <v>56</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="20">
+        <v>5</v>
+      </c>
+      <c r="G98" s="14">
+        <v>1</v>
+      </c>
+      <c r="H98" s="13">
+        <v>5</v>
+      </c>
+      <c r="I98" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="24">
+        <v>57</v>
+      </c>
+      <c r="B99" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="16"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99" s="25">
-        <v>5</v>
-      </c>
-      <c r="G99" s="16">
-        <v>4</v>
-      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="16"/>
       <c r="H99" s="15"/>
       <c r="I99" s="16"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F100" s="25">
         <v>5</v>
@@ -5684,19 +5694,19 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D101" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F101" s="25">
         <v>5</v>
@@ -5704,24 +5714,24 @@
       <c r="G101" s="16">
         <v>4</v>
       </c>
-      <c r="H101" s="13"/>
-      <c r="I101" s="14"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F102" s="25">
         <v>5</v>
@@ -5734,19 +5744,19 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F103" s="25">
         <v>5</v>
@@ -5758,60 +5768,62 @@
       <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="24">
-        <v>56</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>282</v>
+      <c r="A104" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>276</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="16"/>
+        <v>277</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="25">
+        <v>5</v>
+      </c>
+      <c r="G104" s="16">
+        <v>4</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="14"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>275</v>
+      <c r="A105" s="24">
+        <v>58</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F105" s="25">
-        <v>5</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="25"/>
       <c r="G105" s="16"/>
       <c r="H105" s="15"/>
       <c r="I105" s="16"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F106" s="25">
         <v>5</v>
@@ -5822,42 +5834,42 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F107" s="25">
         <v>5</v>
       </c>
-      <c r="G107" s="14"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="14"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F108" s="25">
         <v>5</v>
@@ -5868,19 +5880,19 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F109" s="25">
         <v>5</v>
@@ -5888,6 +5900,29 @@
       <c r="G109" s="14"/>
       <c r="H109" s="13"/>
       <c r="I109" s="14"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="25">
+        <v>5</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7DAF64-06BD-42A1-8B5A-267731EDD38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1003C-6859-49CE-B139-BFAB1ABADE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -2657,7 +2657,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I110" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I110" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A3:I110" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Amine Amzil"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2982,14 +2988,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="121" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" customWidth="1"/>
     <col min="3" max="3" width="100.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
@@ -3044,7 +3050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3305,7 +3311,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3682,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3798,7 +3804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3972,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -4031,7 +4037,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -4061,7 +4067,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -4091,7 +4097,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -4121,7 +4127,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -4139,7 +4145,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -4330,7 +4336,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4405,7 +4411,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4550,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4698,7 +4704,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>218</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>221</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>223</v>
       </c>
@@ -4781,7 +4787,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
@@ -4806,7 +4812,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>230</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>279</v>
       </c>
@@ -4860,7 +4866,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>39</v>
       </c>
@@ -4889,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>40</v>
       </c>
@@ -4904,7 +4910,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>192</v>
       </c>
@@ -4933,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>195</v>
       </c>
@@ -4962,7 +4968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>197</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>238</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>239</v>
       </c>
@@ -5049,7 +5055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>41</v>
       </c>
@@ -5078,7 +5084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>42</v>
       </c>
@@ -5147,7 +5153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>43</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>43</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>44</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>47</v>
       </c>
@@ -5321,7 +5327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>48</v>
       </c>
@@ -5346,7 +5352,7 @@
       <c r="H86" s="15"/>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>49</v>
       </c>
@@ -5361,7 +5367,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>248</v>
       </c>
@@ -5386,7 +5392,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>249</v>
       </c>
@@ -5411,7 +5417,7 @@
       <c r="H89" s="15"/>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>250</v>
       </c>
@@ -5436,7 +5442,7 @@
       <c r="H90" s="15"/>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>252</v>
       </c>
@@ -5461,7 +5467,7 @@
       <c r="H91" s="13"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>50</v>
       </c>
@@ -5508,8 +5514,12 @@
       <c r="G93" s="16">
         <v>3</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="16"/>
+      <c r="H93" s="15">
+        <v>5</v>
+      </c>
+      <c r="I93" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
@@ -5533,10 +5543,14 @@
       <c r="G94" s="16">
         <v>1</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="16"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="15">
+        <v>5</v>
+      </c>
+      <c r="I94" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>53</v>
       </c>
@@ -5565,7 +5579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>54</v>
       </c>
@@ -5594,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>55</v>
       </c>
@@ -5623,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>56</v>
       </c>
@@ -5652,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>57</v>
       </c>
@@ -5667,7 +5681,7 @@
       <c r="H99" s="15"/>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>286</v>
       </c>
@@ -5692,7 +5706,7 @@
       <c r="H100" s="15"/>
       <c r="I100" s="16"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>287</v>
       </c>
@@ -5717,7 +5731,7 @@
       <c r="H101" s="15"/>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>288</v>
       </c>
@@ -5742,7 +5756,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>289</v>
       </c>
@@ -5792,7 +5806,7 @@
       <c r="H104" s="13"/>
       <c r="I104" s="14"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>58</v>
       </c>
@@ -5809,7 +5823,7 @@
       <c r="H105" s="15"/>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>291</v>
       </c>
@@ -5832,7 +5846,7 @@
       <c r="H106" s="15"/>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>292</v>
       </c>
@@ -5855,7 +5869,7 @@
       <c r="H107" s="15"/>
       <c r="I107" s="16"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>293</v>
       </c>
@@ -5878,7 +5892,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="14"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
         <v>294</v>
       </c>
@@ -5920,7 +5934,9 @@
       <c r="F110" s="25">
         <v>5</v>
       </c>
-      <c r="G110" s="14"/>
+      <c r="G110" s="14">
+        <v>3</v>
+      </c>
       <c r="H110" s="13"/>
       <c r="I110" s="14"/>
     </row>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1003C-6859-49CE-B139-BFAB1ABADE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E595E7AE-12EC-4125-A98A-0009F6B6F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="810" windowWidth="25995" windowHeight="14250" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="24" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
   <si>
     <t>#</t>
   </si>
@@ -925,6 +925,24 @@
   </si>
   <si>
     <t>58.5</t>
+  </si>
+  <si>
+    <t>Cleaning up code</t>
+  </si>
+  <si>
+    <t>Cleaning the code to make it easier to understand</t>
+  </si>
+  <si>
+    <t>Creating a presentation</t>
+  </si>
+  <si>
+    <t>Making our own Power Point template</t>
+  </si>
+  <si>
+    <t>Making our own PowerPoint template for our presentation</t>
+  </si>
+  <si>
+    <t>Creating the PowerPoint slides for our presentation</t>
   </si>
 </sst>
 </file>
@@ -976,7 +994,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1115,11 +1133,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,6 +1246,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1603,13 +1639,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44374.807942708336" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="81" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44389.034290162039" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="109" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle2"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="#" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="48"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="61"/>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
       <sharedItems/>
@@ -1635,19 +1671,20 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
     </cacheField>
     <cacheField name="Planned Effort in h" numFmtId="164">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="6"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="8"/>
     </cacheField>
     <cacheField name="Realized in Sprint #" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="6">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <m/>
         <n v="4"/>
+        <n v="5"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Real Effort in h" numFmtId="164">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="6"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1659,7 +1696,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="81">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="109">
   <r>
     <n v="1"/>
     <s v="Creating a Discord Server for the Group"/>
@@ -2339,8 +2376,8 @@
     <s v="Karsten Rudolf"/>
     <n v="5"/>
     <n v="2"/>
-    <x v="3"/>
-    <m/>
+    <x v="5"/>
+    <n v="2"/>
   </r>
   <r>
     <s v="38.4"/>
@@ -2350,19 +2387,30 @@
     <s v="Jan Leonardi"/>
     <n v="5"/>
     <n v="4"/>
-    <x v="3"/>
-    <m/>
+    <x v="5"/>
+    <n v="3"/>
   </r>
   <r>
     <s v="38.5"/>
+    <s v="Function to Connect DataObjects with Links"/>
+    <s v="DataObjects are now selectable for each Link"/>
+    <x v="2"/>
+    <s v="Karsten Rudolf"/>
+    <n v="5"/>
+    <n v="8"/>
+    <x v="5"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <s v="38.6"/>
     <s v="Refactor CSV export"/>
     <s v="Export to CSV has to be refactored"/>
     <x v="3"/>
     <s v="Karsten Rudolf"/>
     <n v="5"/>
     <n v="5"/>
-    <x v="3"/>
-    <m/>
+    <x v="5"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="39"/>
@@ -2469,10 +2517,10 @@
     <s v="Mitigation of User errors and more user friendly"/>
     <x v="4"/>
     <s v="Edgar Meilinger"/>
+    <n v="5"/>
     <n v="4"/>
-    <n v="4"/>
-    <x v="3"/>
-    <m/>
+    <x v="5"/>
+    <n v="7"/>
   </r>
   <r>
     <s v="42.2"/>
@@ -2541,22 +2589,319 @@
     <n v="2"/>
   </r>
   <r>
-    <n v="48"/>
+    <n v="47"/>
     <s v="Automatic layout for nodes and bindings"/>
     <s v="Making the UI more User friendly"/>
     <x v="1"/>
     <s v="Amine Amzil"/>
     <n v="4"/>
     <n v="5"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Making the UI more consistent for all data object functions"/>
+    <s v="Easier to understand for the customer (button names etc.)"/>
+    <x v="3"/>
+    <s v="Karsten Rudolf"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Editing the inspector"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
     <x v="3"/>
     <m/>
+  </r>
+  <r>
+    <s v="49.1"/>
+    <s v="Scaleable window "/>
+    <s v="Window should scale with text sizes"/>
+    <x v="0"/>
+    <s v="Ersan Ünsal"/>
+    <n v="5"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="49.2"/>
+    <s v="Exclude save changes button"/>
+    <s v="Data Objects should only be able to edit due edit function on manage objects sidebar"/>
+    <x v="0"/>
+    <s v="Ersan Ünsal"/>
+    <n v="5"/>
+    <n v="2"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="49.3"/>
+    <s v="Filling the empty space on the sides"/>
+    <s v="Not wasting space of our window"/>
+    <x v="0"/>
+    <s v="Jan Leonardi"/>
+    <n v="5"/>
+    <n v="2"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="49.4"/>
+    <s v="Editing design"/>
+    <s v="Making UI more user friendly"/>
+    <x v="0"/>
+    <s v="Ersan Ünsal"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Fixing edit function for Data Objects "/>
+    <s v="Fixing bugs"/>
+    <x v="3"/>
+    <s v="Edgar Meilinger"/>
+    <n v="5"/>
+    <n v="2"/>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Saving schema in Database for excel sheets for import function"/>
+    <s v="User doesn't have to fill schema in every time he starts the program"/>
+    <x v="4"/>
+    <s v="Edgar Meilinger"/>
+    <n v="5"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Making error messages for important functions"/>
+    <s v="User gets information if something doesn't work"/>
+    <x v="4"/>
+    <s v="Edgar Meilinger"/>
+    <n v="5"/>
+    <n v="1"/>
+    <x v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Making the UI more consistent for greeting screen"/>
+    <s v="Easier to understand for the customer (button names etc.)"/>
+    <x v="2"/>
+    <s v="Karsten Rudolf"/>
+    <n v="5"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Fixing arrowheads"/>
+    <s v="Fixing design of arrowheads"/>
+    <x v="1"/>
+    <s v="Jan Leonardi"/>
+    <n v="5"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Add Function to save in database when node and link is updated"/>
+    <s v="Added 2 more save events"/>
+    <x v="2"/>
+    <s v="Edgar Meilinger"/>
+    <n v="5"/>
+    <n v="1"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Add Function to check Data Objects in a Link"/>
+    <s v="Ignoring Data Objects that are already in a Link "/>
+    <x v="2"/>
+    <s v="Amine Amzil"/>
+    <n v="5"/>
+    <n v="1"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Tests"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="57.1"/>
+    <s v="Test 1 + documenting bugs"/>
+    <s v="Each group member tests the whole program and it's function after the program is finished and documents bugs"/>
+    <x v="3"/>
+    <s v="Amine Amzil"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="57.2"/>
+    <s v="Test 2 + documenting bugs"/>
+    <s v="Each group member tests the whole program and it's function after the program is finished and documents bugs"/>
+    <x v="2"/>
+    <s v="Jan Leonardi"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="57.3"/>
+    <s v="Test 3 + documenting bugs"/>
+    <s v="Each group member tests the whole program and it's function after the program is finished and documents bugs"/>
+    <x v="1"/>
+    <s v="Ersan Ünsal"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="57.4"/>
+    <s v="Test 4 + documenting bugs"/>
+    <s v="Each group member tests the whole program and it's function after the program is finished and documents bugs"/>
+    <x v="0"/>
+    <s v="Edgar Meilinger"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="57.5"/>
+    <s v="Test 5 + documenting bugs"/>
+    <s v="Each group member tests the whole program and it's function after the program is finished and documents bugs"/>
+    <x v="4"/>
+    <s v="Karsten Rudolf"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Teammeeting to discuss documented bugs"/>
+    <s v="Each group reports documented bugs at this meeting"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="58.1"/>
+    <s v="Fixing Bugs 1"/>
+    <s v="Each group member will be assigned to fix reported bugs"/>
+    <x v="3"/>
+    <s v="Amine Amzil"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="58.2"/>
+    <s v="Fixing Bugs 2"/>
+    <s v="Each group member will be assigned to fix reported bugs"/>
+    <x v="2"/>
+    <s v="Jan Leonardi"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="58.3"/>
+    <s v="Fixing Bugs 3"/>
+    <s v="Each group member will be assigned to fix reported bugs"/>
+    <x v="1"/>
+    <s v="Ersan Ünsal"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="58.4"/>
+    <s v="Fixing Bugs 4"/>
+    <s v="Each group member will be assigned to fix reported bugs"/>
+    <x v="0"/>
+    <s v="Edgar Meilinger"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="58.5"/>
+    <s v="Fixing Bugs 5"/>
+    <s v="Each group member will be assigned to fix reported bugs"/>
+    <x v="4"/>
+    <s v="Karsten Rudolf"/>
+    <n v="5"/>
+    <n v="4"/>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Cleaning up code"/>
+    <s v="Cleaning the code to make it easier to understand"/>
+    <x v="1"/>
+    <s v="Ersan Ünsal"/>
+    <n v="5"/>
+    <n v="5"/>
+    <x v="5"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Making our own Power Point template"/>
+    <s v="Making our own PowerPoint template for our presentation"/>
+    <x v="0"/>
+    <s v="Edgar Meilinger"/>
+    <n v="5"/>
+    <n v="1"/>
+    <x v="5"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2577,12 +2922,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2620,7 +2966,7 @@
   <colFields count="1">
     <field x="7"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -2635,6 +2981,9 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -2656,14 +3005,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I110" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I110" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Amine Amzil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I112" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I112" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -2986,10 +3329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,7 +3393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -3079,7 +3422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -3108,7 +3451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -3137,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -3195,7 +3538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3224,7 +3567,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3253,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3282,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3311,7 +3654,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3340,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3369,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3398,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3427,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3456,7 +3799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3485,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3601,7 +3944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3630,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3688,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3717,7 +4060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3746,7 +4089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3775,7 +4118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3804,7 +4147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3833,7 +4176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3862,7 +4205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3891,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3920,7 +4263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3949,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3978,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -4007,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -4037,7 +4380,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>173</v>
       </c>
@@ -4067,7 +4410,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>174</v>
       </c>
@@ -4097,7 +4440,7 @@
       </c>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>34</v>
       </c>
@@ -4127,7 +4470,7 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>35</v>
       </c>
@@ -4145,7 +4488,7 @@
       <c r="I41" s="16"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>181</v>
       </c>
@@ -4174,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>182</v>
       </c>
@@ -4203,7 +4546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>183</v>
       </c>
@@ -4232,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
@@ -4261,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>185</v>
       </c>
@@ -4319,7 +4662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>187</v>
       </c>
@@ -4336,7 +4679,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
@@ -4365,7 +4708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>189</v>
       </c>
@@ -4394,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>36</v>
       </c>
@@ -4411,7 +4754,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
@@ -4440,7 +4783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>176</v>
       </c>
@@ -4469,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>177</v>
       </c>
@@ -4498,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>178</v>
       </c>
@@ -4527,7 +4870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>179</v>
       </c>
@@ -4556,7 +4899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>180</v>
       </c>
@@ -4585,7 +4928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>37</v>
       </c>
@@ -4689,7 +5032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>38</v>
       </c>
@@ -4704,7 +5047,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>218</v>
       </c>
@@ -4733,7 +5076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>221</v>
       </c>
@@ -4762,7 +5105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>223</v>
       </c>
@@ -4784,10 +5127,14 @@
       <c r="G65" s="14">
         <v>2</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="13">
+        <v>5</v>
+      </c>
+      <c r="I65" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
@@ -4809,10 +5156,14 @@
       <c r="G66" s="14">
         <v>4</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="13">
+        <v>5</v>
+      </c>
+      <c r="I66" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>230</v>
       </c>
@@ -4841,7 +5192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>279</v>
       </c>
@@ -4863,10 +5214,14 @@
       <c r="G68" s="14">
         <v>5</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="13">
+        <v>5</v>
+      </c>
+      <c r="I68" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>39</v>
       </c>
@@ -4895,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>40</v>
       </c>
@@ -4910,7 +5265,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>192</v>
       </c>
@@ -4939,7 +5294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>195</v>
       </c>
@@ -4968,7 +5323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>197</v>
       </c>
@@ -4997,7 +5352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>238</v>
       </c>
@@ -5026,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>239</v>
       </c>
@@ -5055,7 +5410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>41</v>
       </c>
@@ -5084,7 +5439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>42</v>
       </c>
@@ -5116,13 +5471,17 @@
         <v>28</v>
       </c>
       <c r="F78" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" s="16">
         <v>4</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="16"/>
+      <c r="H78" s="15">
+        <v>5</v>
+      </c>
+      <c r="I78" s="16">
+        <v>7</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
@@ -5153,7 +5512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>43</v>
       </c>
@@ -5182,7 +5541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>43</v>
       </c>
@@ -5211,7 +5570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>44</v>
       </c>
@@ -5240,7 +5599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45</v>
       </c>
@@ -5298,7 +5657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>47</v>
       </c>
@@ -5327,7 +5686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>48</v>
       </c>
@@ -5349,10 +5708,14 @@
       <c r="G86" s="16">
         <v>4</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="16"/>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="15">
+        <v>5</v>
+      </c>
+      <c r="I86" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>49</v>
       </c>
@@ -5367,7 +5730,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>248</v>
       </c>
@@ -5389,10 +5752,14 @@
       <c r="G88" s="16">
         <v>3</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="16"/>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="15">
+        <v>5</v>
+      </c>
+      <c r="I88" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>249</v>
       </c>
@@ -5414,10 +5781,14 @@
       <c r="G89" s="16">
         <v>2</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="16"/>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="15">
+        <v>5</v>
+      </c>
+      <c r="I89" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>250</v>
       </c>
@@ -5439,10 +5810,14 @@
       <c r="G90" s="16">
         <v>2</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="16"/>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="15">
+        <v>5</v>
+      </c>
+      <c r="I90" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>252</v>
       </c>
@@ -5464,10 +5839,14 @@
       <c r="G91" s="14">
         <v>4</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="13">
+        <v>5</v>
+      </c>
+      <c r="I91" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>50</v>
       </c>
@@ -5489,8 +5868,12 @@
       <c r="G92" s="16">
         <v>2</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="16"/>
+      <c r="H92" s="15">
+        <v>5</v>
+      </c>
+      <c r="I92" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
@@ -5550,7 +5933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>53</v>
       </c>
@@ -5579,7 +5962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>54</v>
       </c>
@@ -5608,7 +5991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>55</v>
       </c>
@@ -5637,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>56</v>
       </c>
@@ -5666,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>57</v>
       </c>
@@ -5681,7 +6064,7 @@
       <c r="H99" s="15"/>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>286</v>
       </c>
@@ -5703,10 +6086,14 @@
       <c r="G100" s="16">
         <v>4</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="16"/>
-    </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="15">
+        <v>5</v>
+      </c>
+      <c r="I100" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>287</v>
       </c>
@@ -5728,10 +6115,14 @@
       <c r="G101" s="16">
         <v>4</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="16"/>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="15">
+        <v>5</v>
+      </c>
+      <c r="I101" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>288</v>
       </c>
@@ -5753,10 +6144,14 @@
       <c r="G102" s="16">
         <v>4</v>
       </c>
-      <c r="H102" s="13"/>
-      <c r="I102" s="14"/>
-    </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="15">
+        <v>5</v>
+      </c>
+      <c r="I102" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>289</v>
       </c>
@@ -5778,8 +6173,12 @@
       <c r="G103" s="16">
         <v>4</v>
       </c>
-      <c r="H103" s="13"/>
-      <c r="I103" s="14"/>
+      <c r="H103" s="15">
+        <v>5</v>
+      </c>
+      <c r="I103" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
@@ -5803,10 +6202,14 @@
       <c r="G104" s="16">
         <v>4</v>
       </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="14"/>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="15">
+        <v>5</v>
+      </c>
+      <c r="I104" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>58</v>
       </c>
@@ -5823,7 +6226,7 @@
       <c r="H105" s="15"/>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>291</v>
       </c>
@@ -5842,11 +6245,17 @@
       <c r="F106" s="25">
         <v>5</v>
       </c>
-      <c r="G106" s="16"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="14">
+        <v>4</v>
+      </c>
+      <c r="H106" s="15">
+        <v>5</v>
+      </c>
+      <c r="I106" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>292</v>
       </c>
@@ -5865,11 +6274,17 @@
       <c r="F107" s="25">
         <v>5</v>
       </c>
-      <c r="G107" s="16"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="14">
+        <v>4</v>
+      </c>
+      <c r="H107" s="15">
+        <v>5</v>
+      </c>
+      <c r="I107" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>293</v>
       </c>
@@ -5888,11 +6303,17 @@
       <c r="F108" s="25">
         <v>5</v>
       </c>
-      <c r="G108" s="14"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="14"/>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="14">
+        <v>4</v>
+      </c>
+      <c r="H108" s="15">
+        <v>5</v>
+      </c>
+      <c r="I108" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
         <v>294</v>
       </c>
@@ -5911,9 +6332,15 @@
       <c r="F109" s="25">
         <v>5</v>
       </c>
-      <c r="G109" s="14"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="14"/>
+      <c r="G109" s="14">
+        <v>4</v>
+      </c>
+      <c r="H109" s="15">
+        <v>5</v>
+      </c>
+      <c r="I109" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
@@ -5935,10 +6362,101 @@
         <v>5</v>
       </c>
       <c r="G110" s="14">
-        <v>3</v>
-      </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H110" s="15">
+        <v>5</v>
+      </c>
+      <c r="I110" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="24">
+        <v>59</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="25">
+        <v>5</v>
+      </c>
+      <c r="G111" s="16">
+        <v>5</v>
+      </c>
+      <c r="H111" s="15">
+        <v>5</v>
+      </c>
+      <c r="I111" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="24">
+        <v>60</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="25">
+        <v>5</v>
+      </c>
+      <c r="G112" s="16">
+        <v>1</v>
+      </c>
+      <c r="H112" s="15">
+        <v>5</v>
+      </c>
+      <c r="I112" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="24">
+        <v>61</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="25">
+        <v>5</v>
+      </c>
+      <c r="G113" s="16">
+        <v>3</v>
+      </c>
+      <c r="H113" s="15">
+        <v>5</v>
+      </c>
+      <c r="I113" s="16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6282,10 +6800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F766830-04C4-499B-8B97-181CE7467FE7}">
-  <dimension ref="A3:G12"/>
+  <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6294,8 +6812,8 @@
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
@@ -6313,7 +6831,7 @@
     <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
@@ -6321,7 +6839,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>170</v>
       </c>
@@ -6340,11 +6858,14 @@
       <c r="F4" t="s">
         <v>168</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>36</v>
       </c>
@@ -6362,10 +6883,13 @@
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H5" s="22">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -6379,14 +6903,17 @@
         <v>11</v>
       </c>
       <c r="E6" s="22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H6" s="22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -6404,10 +6931,13 @@
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H7" s="22">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
@@ -6418,11 +6948,12 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="22">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
@@ -6440,10 +6971,13 @@
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H9" s="22">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -6461,10 +6995,13 @@
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H10" s="22">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
@@ -6474,8 +7011,9 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>169</v>
       </c>
@@ -6489,11 +7027,14 @@
         <v>59</v>
       </c>
       <c r="E12" s="22">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22">
-        <v>195</v>
+        <v>104</v>
+      </c>
+      <c r="H12" s="22">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Abgaben/Group_A_TaskRisk_log.xlsx
+++ b/Abgaben/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E595E7AE-12EC-4125-A98A-0009F6B6F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92305E5-3549-47E4-86D8-A259950AA32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="810" windowWidth="25995" windowHeight="14250" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId5"/>
+    <pivotCache cacheId="56" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="298">
   <si>
     <t>#</t>
   </si>
@@ -931,18 +931,6 @@
   </si>
   <si>
     <t>Cleaning the code to make it easier to understand</t>
-  </si>
-  <si>
-    <t>Creating a presentation</t>
-  </si>
-  <si>
-    <t>Making our own Power Point template</t>
-  </si>
-  <si>
-    <t>Making our own PowerPoint template for our presentation</t>
-  </si>
-  <si>
-    <t>Creating the PowerPoint slides for our presentation</t>
   </si>
 </sst>
 </file>
@@ -994,7 +982,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1133,26 +1121,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,9 +1219,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1639,13 +1609,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44389.034290162039" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="109" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44389.072099652774" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="108" xr:uid="{098F87A3-12ED-4463-A2D5-46F8DF234481}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle2"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="#" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="61"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="59"/>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
       <sharedItems/>
@@ -1696,7 +1666,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="109">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="108">
   <r>
     <n v="1"/>
     <s v="Creating a Discord Server for the Group"/>
@@ -2883,24 +2853,13 @@
     <n v="5"/>
     <n v="5"/>
     <x v="5"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <s v="Making our own Power Point template"/>
-    <s v="Making our own PowerPoint template for our presentation"/>
-    <x v="0"/>
-    <s v="Edgar Meilinger"/>
-    <n v="5"/>
-    <n v="1"/>
-    <x v="5"/>
-    <n v="1"/>
+    <n v="7"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DBBB4A6-5CB7-4CEC-9E66-E98235078BFF}" name="PivotTable1" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -3005,8 +2964,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I112" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I112" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I111" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I111" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -3329,10 +3288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,7 +4019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -6397,65 +6356,7 @@
         <v>5</v>
       </c>
       <c r="I111" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="24">
-        <v>60</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" s="25">
-        <v>5</v>
-      </c>
-      <c r="G112" s="16">
-        <v>1</v>
-      </c>
-      <c r="H112" s="15">
-        <v>5</v>
-      </c>
-      <c r="I112" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="24">
-        <v>61</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F113" s="25">
-        <v>5</v>
-      </c>
-      <c r="G113" s="16">
-        <v>3</v>
-      </c>
-      <c r="H113" s="15">
-        <v>5</v>
-      </c>
-      <c r="I113" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6803,7 +6704,7 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6907,10 +6808,10 @@
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="22">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6995,10 +6896,10 @@
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="22">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
